--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.190061</v>
+        <v>0.215762</v>
       </c>
       <c r="C2" t="n">
-        <v>0.216223</v>
+        <v>0.222967</v>
       </c>
       <c r="D2" t="n">
-        <v>0.20506</v>
+        <v>0.218597</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.195613</v>
+        <v>0.212437</v>
       </c>
       <c r="C3" t="n">
-        <v>0.219853</v>
+        <v>0.229977</v>
       </c>
       <c r="D3" t="n">
-        <v>0.206133</v>
+        <v>0.221997</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.201709</v>
+        <v>0.21649</v>
       </c>
       <c r="C4" t="n">
-        <v>0.229166</v>
+        <v>0.233048</v>
       </c>
       <c r="D4" t="n">
-        <v>0.209229</v>
+        <v>0.219698</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.210765</v>
+        <v>0.225511</v>
       </c>
       <c r="C5" t="n">
-        <v>0.242563</v>
+        <v>0.251847</v>
       </c>
       <c r="D5" t="n">
-        <v>0.212668</v>
+        <v>0.227008</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.22458</v>
+        <v>0.238139</v>
       </c>
       <c r="C6" t="n">
-        <v>0.26094</v>
+        <v>0.263488</v>
       </c>
       <c r="D6" t="n">
-        <v>0.219894</v>
+        <v>0.231312</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.247951</v>
+        <v>0.253969</v>
       </c>
       <c r="C7" t="n">
-        <v>0.290238</v>
+        <v>0.293654</v>
       </c>
       <c r="D7" t="n">
-        <v>0.230919</v>
+        <v>0.250846</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.283457</v>
+        <v>0.29425</v>
       </c>
       <c r="C8" t="n">
-        <v>0.32406</v>
+        <v>0.332709</v>
       </c>
       <c r="D8" t="n">
-        <v>0.247184</v>
+        <v>0.262279</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.334122</v>
+        <v>0.352118</v>
       </c>
       <c r="C9" t="n">
-        <v>0.380304</v>
+        <v>0.389194</v>
       </c>
       <c r="D9" t="n">
-        <v>0.198929</v>
+        <v>0.22266</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.18083</v>
+        <v>0.205883</v>
       </c>
       <c r="C10" t="n">
-        <v>0.201963</v>
+        <v>0.219759</v>
       </c>
       <c r="D10" t="n">
-        <v>0.199532</v>
+        <v>0.228089</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.181866</v>
+        <v>0.215308</v>
       </c>
       <c r="C11" t="n">
-        <v>0.202621</v>
+        <v>0.221537</v>
       </c>
       <c r="D11" t="n">
-        <v>0.199988</v>
+        <v>0.224671</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.183364</v>
+        <v>0.209551</v>
       </c>
       <c r="C12" t="n">
-        <v>0.203706</v>
+        <v>0.213427</v>
       </c>
       <c r="D12" t="n">
-        <v>0.200333</v>
+        <v>0.216638</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.184647</v>
+        <v>0.199048</v>
       </c>
       <c r="C13" t="n">
-        <v>0.205164</v>
+        <v>0.208147</v>
       </c>
       <c r="D13" t="n">
-        <v>0.200706</v>
+        <v>0.213468</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.185937</v>
+        <v>0.200823</v>
       </c>
       <c r="C14" t="n">
-        <v>0.208943</v>
+        <v>0.213561</v>
       </c>
       <c r="D14" t="n">
-        <v>0.201966</v>
+        <v>0.217982</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.188286</v>
+        <v>0.206237</v>
       </c>
       <c r="C15" t="n">
-        <v>0.211642</v>
+        <v>0.219072</v>
       </c>
       <c r="D15" t="n">
-        <v>0.202496</v>
+        <v>0.225401</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.191277</v>
+        <v>0.208498</v>
       </c>
       <c r="C16" t="n">
-        <v>0.216235</v>
+        <v>0.219111</v>
       </c>
       <c r="D16" t="n">
-        <v>0.203881</v>
+        <v>0.225172</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.195703</v>
+        <v>0.21235</v>
       </c>
       <c r="C17" t="n">
-        <v>0.221811</v>
+        <v>0.223716</v>
       </c>
       <c r="D17" t="n">
-        <v>0.205499</v>
+        <v>0.219387</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.20249</v>
+        <v>0.220947</v>
       </c>
       <c r="C18" t="n">
-        <v>0.227906</v>
+        <v>0.237296</v>
       </c>
       <c r="D18" t="n">
-        <v>0.207033</v>
+        <v>0.231617</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.210771</v>
+        <v>0.229564</v>
       </c>
       <c r="C19" t="n">
-        <v>0.238494</v>
+        <v>0.244632</v>
       </c>
       <c r="D19" t="n">
-        <v>0.210863</v>
+        <v>0.233307</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.226399</v>
+        <v>0.248509</v>
       </c>
       <c r="C20" t="n">
-        <v>0.255473</v>
+        <v>0.264379</v>
       </c>
       <c r="D20" t="n">
-        <v>0.215476</v>
+        <v>0.236065</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.249948</v>
+        <v>0.272801</v>
       </c>
       <c r="C21" t="n">
-        <v>0.275008</v>
+        <v>0.278843</v>
       </c>
       <c r="D21" t="n">
-        <v>0.222903</v>
+        <v>0.245236</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.282855</v>
+        <v>0.293412</v>
       </c>
       <c r="C22" t="n">
-        <v>0.303591</v>
+        <v>0.305607</v>
       </c>
       <c r="D22" t="n">
-        <v>0.237323</v>
+        <v>0.249242</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.330155</v>
+        <v>0.337858</v>
       </c>
       <c r="C23" t="n">
-        <v>0.35792</v>
+        <v>0.355164</v>
       </c>
       <c r="D23" t="n">
-        <v>0.200355</v>
+        <v>0.213214</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.18603</v>
+        <v>0.199643</v>
       </c>
       <c r="C24" t="n">
-        <v>0.203105</v>
+        <v>0.2073</v>
       </c>
       <c r="D24" t="n">
-        <v>0.200528</v>
+        <v>0.217279</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.186408</v>
+        <v>0.201943</v>
       </c>
       <c r="C25" t="n">
-        <v>0.204148</v>
+        <v>0.210319</v>
       </c>
       <c r="D25" t="n">
-        <v>0.20118</v>
+        <v>0.225119</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.187655</v>
+        <v>0.206884</v>
       </c>
       <c r="C26" t="n">
-        <v>0.205576</v>
+        <v>0.212999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.201408</v>
+        <v>0.221601</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.189616</v>
+        <v>0.206307</v>
       </c>
       <c r="C27" t="n">
-        <v>0.206955</v>
+        <v>0.216513</v>
       </c>
       <c r="D27" t="n">
-        <v>0.201986</v>
+        <v>0.220251</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.191047</v>
+        <v>0.207412</v>
       </c>
       <c r="C28" t="n">
-        <v>0.208822</v>
+        <v>0.222606</v>
       </c>
       <c r="D28" t="n">
-        <v>0.202451</v>
+        <v>0.221718</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.193337</v>
+        <v>0.212921</v>
       </c>
       <c r="C29" t="n">
-        <v>0.21255</v>
+        <v>0.223728</v>
       </c>
       <c r="D29" t="n">
-        <v>0.203644</v>
+        <v>0.235387</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.196521</v>
+        <v>0.224359</v>
       </c>
       <c r="C30" t="n">
-        <v>0.215564</v>
+        <v>0.224224</v>
       </c>
       <c r="D30" t="n">
-        <v>0.204568</v>
+        <v>0.221941</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.200964</v>
+        <v>0.216144</v>
       </c>
       <c r="C31" t="n">
-        <v>0.220011</v>
+        <v>0.225748</v>
       </c>
       <c r="D31" t="n">
-        <v>0.205999</v>
+        <v>0.23195</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.20734</v>
+        <v>0.234914</v>
       </c>
       <c r="C32" t="n">
-        <v>0.227163</v>
+        <v>0.235127</v>
       </c>
       <c r="D32" t="n">
-        <v>0.207884</v>
+        <v>0.228569</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.216995</v>
+        <v>0.230591</v>
       </c>
       <c r="C33" t="n">
-        <v>0.23776</v>
+        <v>0.237743</v>
       </c>
       <c r="D33" t="n">
-        <v>0.211357</v>
+        <v>0.224758</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.230868</v>
+        <v>0.239018</v>
       </c>
       <c r="C34" t="n">
-        <v>0.250392</v>
+        <v>0.24627</v>
       </c>
       <c r="D34" t="n">
-        <v>0.215493</v>
+        <v>0.224269</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.251375</v>
+        <v>0.25359</v>
       </c>
       <c r="C35" t="n">
-        <v>0.26917</v>
+        <v>0.266792</v>
       </c>
       <c r="D35" t="n">
-        <v>0.221544</v>
+        <v>0.238752</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.278597</v>
+        <v>0.292469</v>
       </c>
       <c r="C36" t="n">
-        <v>0.299148</v>
+        <v>0.299818</v>
       </c>
       <c r="D36" t="n">
-        <v>0.233561</v>
+        <v>0.252428</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.325203</v>
+        <v>0.326287</v>
       </c>
       <c r="C37" t="n">
-        <v>0.344917</v>
+        <v>0.34525</v>
       </c>
       <c r="D37" t="n">
-        <v>0.201825</v>
+        <v>0.225181</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.18959</v>
+        <v>0.212522</v>
       </c>
       <c r="C38" t="n">
-        <v>0.206207</v>
+        <v>0.219279</v>
       </c>
       <c r="D38" t="n">
-        <v>0.202346</v>
+        <v>0.226344</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.190778</v>
+        <v>0.203395</v>
       </c>
       <c r="C39" t="n">
-        <v>0.207479</v>
+        <v>0.220424</v>
       </c>
       <c r="D39" t="n">
-        <v>0.202951</v>
+        <v>0.225169</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.191453</v>
+        <v>0.205088</v>
       </c>
       <c r="C40" t="n">
-        <v>0.208629</v>
+        <v>0.216709</v>
       </c>
       <c r="D40" t="n">
-        <v>0.202967</v>
+        <v>0.231623</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.193048</v>
+        <v>0.217988</v>
       </c>
       <c r="C41" t="n">
-        <v>0.209846</v>
+        <v>0.220735</v>
       </c>
       <c r="D41" t="n">
-        <v>0.203777</v>
+        <v>0.229322</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.194527</v>
+        <v>0.214007</v>
       </c>
       <c r="C42" t="n">
-        <v>0.211547</v>
+        <v>0.22027</v>
       </c>
       <c r="D42" t="n">
-        <v>0.204216</v>
+        <v>0.229613</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.196923</v>
+        <v>0.216369</v>
       </c>
       <c r="C43" t="n">
-        <v>0.213593</v>
+        <v>0.227027</v>
       </c>
       <c r="D43" t="n">
-        <v>0.205035</v>
+        <v>0.228345</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.200168</v>
+        <v>0.211205</v>
       </c>
       <c r="C44" t="n">
-        <v>0.217596</v>
+        <v>0.219683</v>
       </c>
       <c r="D44" t="n">
-        <v>0.205941</v>
+        <v>0.222116</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.203376</v>
+        <v>0.21642</v>
       </c>
       <c r="C45" t="n">
-        <v>0.222182</v>
+        <v>0.227186</v>
       </c>
       <c r="D45" t="n">
-        <v>0.207328</v>
+        <v>0.230879</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.209562</v>
+        <v>0.230501</v>
       </c>
       <c r="C46" t="n">
-        <v>0.228846</v>
+        <v>0.24327</v>
       </c>
       <c r="D46" t="n">
-        <v>0.209928</v>
+        <v>0.239936</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.217762</v>
+        <v>0.239274</v>
       </c>
       <c r="C47" t="n">
-        <v>0.237914</v>
+        <v>0.249678</v>
       </c>
       <c r="D47" t="n">
-        <v>0.212526</v>
+        <v>0.237968</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.228469</v>
+        <v>0.249253</v>
       </c>
       <c r="C48" t="n">
-        <v>0.250818</v>
+        <v>0.261801</v>
       </c>
       <c r="D48" t="n">
-        <v>0.216737</v>
+        <v>0.242547</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.246145</v>
+        <v>0.263227</v>
       </c>
       <c r="C49" t="n">
-        <v>0.269153</v>
+        <v>0.281045</v>
       </c>
       <c r="D49" t="n">
-        <v>0.223053</v>
+        <v>0.245428</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.272487</v>
+        <v>0.291619</v>
       </c>
       <c r="C50" t="n">
-        <v>0.298875</v>
+        <v>0.305</v>
       </c>
       <c r="D50" t="n">
-        <v>0.23435</v>
+        <v>0.258362</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.314101</v>
+        <v>0.337161</v>
       </c>
       <c r="C51" t="n">
-        <v>0.339498</v>
+        <v>0.353766</v>
       </c>
       <c r="D51" t="n">
-        <v>0.20382</v>
+        <v>0.229221</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.383837</v>
+        <v>0.404328</v>
       </c>
       <c r="C52" t="n">
-        <v>0.408274</v>
+        <v>0.421915</v>
       </c>
       <c r="D52" t="n">
-        <v>0.204089</v>
+        <v>0.230777</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.193423</v>
+        <v>0.215865</v>
       </c>
       <c r="C53" t="n">
-        <v>0.210383</v>
+        <v>0.219398</v>
       </c>
       <c r="D53" t="n">
-        <v>0.204704</v>
+        <v>0.22456</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.194709</v>
+        <v>0.213695</v>
       </c>
       <c r="C54" t="n">
-        <v>0.211251</v>
+        <v>0.222654</v>
       </c>
       <c r="D54" t="n">
-        <v>0.204966</v>
+        <v>0.227854</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.195578</v>
+        <v>0.215746</v>
       </c>
       <c r="C55" t="n">
-        <v>0.213042</v>
+        <v>0.216753</v>
       </c>
       <c r="D55" t="n">
-        <v>0.205616</v>
+        <v>0.221352</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.196911</v>
+        <v>0.215805</v>
       </c>
       <c r="C56" t="n">
-        <v>0.214573</v>
+        <v>0.219511</v>
       </c>
       <c r="D56" t="n">
-        <v>0.206288</v>
+        <v>0.225355</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.199337</v>
+        <v>0.219333</v>
       </c>
       <c r="C57" t="n">
-        <v>0.217208</v>
+        <v>0.233951</v>
       </c>
       <c r="D57" t="n">
-        <v>0.2071</v>
+        <v>0.230893</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.202283</v>
+        <v>0.227885</v>
       </c>
       <c r="C58" t="n">
-        <v>0.220688</v>
+        <v>0.238859</v>
       </c>
       <c r="D58" t="n">
-        <v>0.208138</v>
+        <v>0.233534</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.205951</v>
+        <v>0.230141</v>
       </c>
       <c r="C59" t="n">
-        <v>0.225418</v>
+        <v>0.236999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.209716</v>
+        <v>0.234943</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.211514</v>
+        <v>0.235423</v>
       </c>
       <c r="C60" t="n">
-        <v>0.231669</v>
+        <v>0.245832</v>
       </c>
       <c r="D60" t="n">
-        <v>0.211257</v>
+        <v>0.237402</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.219394</v>
+        <v>0.237585</v>
       </c>
       <c r="C61" t="n">
-        <v>0.24058</v>
+        <v>0.250929</v>
       </c>
       <c r="D61" t="n">
-        <v>0.213712</v>
+        <v>0.232846</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.230936</v>
+        <v>0.233623</v>
       </c>
       <c r="C62" t="n">
-        <v>0.252677</v>
+        <v>0.255657</v>
       </c>
       <c r="D62" t="n">
-        <v>0.218165</v>
+        <v>0.233942</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.248249</v>
+        <v>0.25884</v>
       </c>
       <c r="C63" t="n">
-        <v>0.269417</v>
+        <v>0.275262</v>
       </c>
       <c r="D63" t="n">
-        <v>0.224691</v>
+        <v>0.232703</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.273175</v>
+        <v>0.285612</v>
       </c>
       <c r="C64" t="n">
-        <v>0.295934</v>
+        <v>0.304652</v>
       </c>
       <c r="D64" t="n">
-        <v>0.235597</v>
+        <v>0.256966</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.312099</v>
+        <v>0.324923</v>
       </c>
       <c r="C65" t="n">
-        <v>0.337193</v>
+        <v>0.330175</v>
       </c>
       <c r="D65" t="n">
-        <v>0.254113</v>
+        <v>0.259401</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.376384</v>
+        <v>0.366186</v>
       </c>
       <c r="C66" t="n">
-        <v>0.400476</v>
+        <v>0.396625</v>
       </c>
       <c r="D66" t="n">
-        <v>0.206949</v>
+        <v>0.228584</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.197824</v>
+        <v>0.228059</v>
       </c>
       <c r="C67" t="n">
-        <v>0.215364</v>
+        <v>0.241802</v>
       </c>
       <c r="D67" t="n">
-        <v>0.207517</v>
+        <v>0.238421</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.198788</v>
+        <v>0.219652</v>
       </c>
       <c r="C68" t="n">
-        <v>0.21606</v>
+        <v>0.224807</v>
       </c>
       <c r="D68" t="n">
-        <v>0.208029</v>
+        <v>0.225384</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.200147</v>
+        <v>0.216697</v>
       </c>
       <c r="C69" t="n">
-        <v>0.217443</v>
+        <v>0.233126</v>
       </c>
       <c r="D69" t="n">
-        <v>0.208392</v>
+        <v>0.232135</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.202222</v>
+        <v>0.221593</v>
       </c>
       <c r="C70" t="n">
-        <v>0.218909</v>
+        <v>0.240313</v>
       </c>
       <c r="D70" t="n">
-        <v>0.209014</v>
+        <v>0.236759</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.203992</v>
+        <v>0.226897</v>
       </c>
       <c r="C71" t="n">
-        <v>0.221892</v>
+        <v>0.233012</v>
       </c>
       <c r="D71" t="n">
-        <v>0.20988</v>
+        <v>0.225986</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.206687</v>
+        <v>0.226772</v>
       </c>
       <c r="C72" t="n">
-        <v>0.227681</v>
+        <v>0.236555</v>
       </c>
       <c r="D72" t="n">
-        <v>0.211246</v>
+        <v>0.227481</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.211318</v>
+        <v>0.21871</v>
       </c>
       <c r="C73" t="n">
-        <v>0.234959</v>
+        <v>0.230828</v>
       </c>
       <c r="D73" t="n">
-        <v>0.215019</v>
+        <v>0.228234</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.216991</v>
+        <v>0.231865</v>
       </c>
       <c r="C74" t="n">
-        <v>0.236614</v>
+        <v>0.246738</v>
       </c>
       <c r="D74" t="n">
-        <v>0.214752</v>
+        <v>0.232028</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.224311</v>
+        <v>0.231465</v>
       </c>
       <c r="C75" t="n">
-        <v>0.249879</v>
+        <v>0.249357</v>
       </c>
       <c r="D75" t="n">
-        <v>0.218337</v>
+        <v>0.233954</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.237374</v>
+        <v>0.254022</v>
       </c>
       <c r="C76" t="n">
-        <v>0.262578</v>
+        <v>0.267209</v>
       </c>
       <c r="D76" t="n">
-        <v>0.222816</v>
+        <v>0.237913</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.256765</v>
+        <v>0.266669</v>
       </c>
       <c r="C77" t="n">
-        <v>0.284616</v>
+        <v>0.279454</v>
       </c>
       <c r="D77" t="n">
-        <v>0.232479</v>
+        <v>0.246158</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.274897</v>
+        <v>0.287912</v>
       </c>
       <c r="C78" t="n">
-        <v>0.300578</v>
+        <v>0.307355</v>
       </c>
       <c r="D78" t="n">
-        <v>0.239589</v>
+        <v>0.257504</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.311563</v>
+        <v>0.324638</v>
       </c>
       <c r="C79" t="n">
-        <v>0.339612</v>
+        <v>0.347983</v>
       </c>
       <c r="D79" t="n">
-        <v>0.261082</v>
+        <v>0.27211</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.384633</v>
+        <v>0.379762</v>
       </c>
       <c r="C80" t="n">
-        <v>0.405758</v>
+        <v>0.406962</v>
       </c>
       <c r="D80" t="n">
-        <v>0.218004</v>
+        <v>0.247009</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.205522</v>
+        <v>0.249289</v>
       </c>
       <c r="C81" t="n">
-        <v>0.236957</v>
+        <v>0.245383</v>
       </c>
       <c r="D81" t="n">
-        <v>0.216252</v>
+        <v>0.243785</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.204</v>
+        <v>0.236282</v>
       </c>
       <c r="C82" t="n">
-        <v>0.22945</v>
+        <v>0.24061</v>
       </c>
       <c r="D82" t="n">
-        <v>0.217414</v>
+        <v>0.250825</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.209589</v>
+        <v>0.247353</v>
       </c>
       <c r="C83" t="n">
-        <v>0.236816</v>
+        <v>0.25453</v>
       </c>
       <c r="D83" t="n">
-        <v>0.225961</v>
+        <v>0.255197</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.215679</v>
+        <v>0.251849</v>
       </c>
       <c r="C84" t="n">
-        <v>0.246509</v>
+        <v>0.256279</v>
       </c>
       <c r="D84" t="n">
-        <v>0.220984</v>
+        <v>0.253594</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.22262</v>
+        <v>0.256843</v>
       </c>
       <c r="C85" t="n">
-        <v>0.247807</v>
+        <v>0.261992</v>
       </c>
       <c r="D85" t="n">
-        <v>0.228915</v>
+        <v>0.26054</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.231806</v>
+        <v>0.260163</v>
       </c>
       <c r="C86" t="n">
-        <v>0.263321</v>
+        <v>0.265874</v>
       </c>
       <c r="D86" t="n">
-        <v>0.237368</v>
+        <v>0.262396</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.240477</v>
+        <v>0.269504</v>
       </c>
       <c r="C87" t="n">
-        <v>0.262995</v>
+        <v>0.279609</v>
       </c>
       <c r="D87" t="n">
-        <v>0.237768</v>
+        <v>0.266873</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.242199</v>
+        <v>0.259645</v>
       </c>
       <c r="C88" t="n">
-        <v>0.261399</v>
+        <v>0.273003</v>
       </c>
       <c r="D88" t="n">
-        <v>0.231194</v>
+        <v>0.260386</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.248341</v>
+        <v>0.262198</v>
       </c>
       <c r="C89" t="n">
-        <v>0.27634</v>
+        <v>0.274059</v>
       </c>
       <c r="D89" t="n">
-        <v>0.240786</v>
+        <v>0.260431</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.268693</v>
+        <v>0.27663</v>
       </c>
       <c r="C90" t="n">
-        <v>0.301484</v>
+        <v>0.284726</v>
       </c>
       <c r="D90" t="n">
-        <v>0.253616</v>
+        <v>0.258846</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.289879</v>
+        <v>0.283671</v>
       </c>
       <c r="C91" t="n">
-        <v>0.309546</v>
+        <v>0.307646</v>
       </c>
       <c r="D91" t="n">
-        <v>0.251316</v>
+        <v>0.275021</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.305955</v>
+        <v>0.327118</v>
       </c>
       <c r="C92" t="n">
-        <v>0.337106</v>
+        <v>0.336564</v>
       </c>
       <c r="D92" t="n">
-        <v>0.269072</v>
+        <v>0.282442</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.347476</v>
+        <v>0.357974</v>
       </c>
       <c r="C93" t="n">
-        <v>0.370831</v>
+        <v>0.368491</v>
       </c>
       <c r="D93" t="n">
-        <v>0.281157</v>
+        <v>0.293519</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.396016</v>
+        <v>0.395888</v>
       </c>
       <c r="C94" t="n">
-        <v>0.420768</v>
+        <v>0.429051</v>
       </c>
       <c r="D94" t="n">
-        <v>0.246363</v>
+        <v>0.299981</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.254893</v>
+        <v>0.278926</v>
       </c>
       <c r="C95" t="n">
-        <v>0.266998</v>
+        <v>0.299915</v>
       </c>
       <c r="D95" t="n">
-        <v>0.248132</v>
+        <v>0.293682</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.258851</v>
+        <v>0.269754</v>
       </c>
       <c r="C96" t="n">
-        <v>0.264976</v>
+        <v>0.292845</v>
       </c>
       <c r="D96" t="n">
-        <v>0.249447</v>
+        <v>0.299251</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.256081</v>
+        <v>0.275671</v>
       </c>
       <c r="C97" t="n">
-        <v>0.261875</v>
+        <v>0.297066</v>
       </c>
       <c r="D97" t="n">
-        <v>0.249039</v>
+        <v>0.294936</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.260679</v>
+        <v>0.285855</v>
       </c>
       <c r="C98" t="n">
-        <v>0.276038</v>
+        <v>0.300955</v>
       </c>
       <c r="D98" t="n">
-        <v>0.251065</v>
+        <v>0.296806</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.265549</v>
+        <v>0.281908</v>
       </c>
       <c r="C99" t="n">
-        <v>0.275039</v>
+        <v>0.30793</v>
       </c>
       <c r="D99" t="n">
-        <v>0.255305</v>
+        <v>0.306875</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.265001</v>
+        <v>0.284937</v>
       </c>
       <c r="C100" t="n">
-        <v>0.273323</v>
+        <v>0.299495</v>
       </c>
       <c r="D100" t="n">
-        <v>0.255463</v>
+        <v>0.292812</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.27145</v>
+        <v>0.276284</v>
       </c>
       <c r="C101" t="n">
-        <v>0.292117</v>
+        <v>0.300972</v>
       </c>
       <c r="D101" t="n">
-        <v>0.260899</v>
+        <v>0.297002</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.282456</v>
+        <v>0.287374</v>
       </c>
       <c r="C102" t="n">
-        <v>0.297297</v>
+        <v>0.304911</v>
       </c>
       <c r="D102" t="n">
-        <v>0.261507</v>
+        <v>0.294091</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.290617</v>
+        <v>0.292403</v>
       </c>
       <c r="C103" t="n">
-        <v>0.311697</v>
+        <v>0.322201</v>
       </c>
       <c r="D103" t="n">
-        <v>0.267999</v>
+        <v>0.298856</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.300851</v>
+        <v>0.315836</v>
       </c>
       <c r="C104" t="n">
-        <v>0.320807</v>
+        <v>0.32606</v>
       </c>
       <c r="D104" t="n">
-        <v>0.272162</v>
+        <v>0.298629</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.316651</v>
+        <v>0.310595</v>
       </c>
       <c r="C105" t="n">
-        <v>0.338723</v>
+        <v>0.366292</v>
       </c>
       <c r="D105" t="n">
-        <v>0.277098</v>
+        <v>0.328403</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.338943</v>
+        <v>0.353804</v>
       </c>
       <c r="C106" t="n">
-        <v>0.365055</v>
+        <v>0.38741</v>
       </c>
       <c r="D106" t="n">
-        <v>0.290581</v>
+        <v>0.329493</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.369489</v>
+        <v>0.382513</v>
       </c>
       <c r="C107" t="n">
-        <v>0.39448</v>
+        <v>0.411519</v>
       </c>
       <c r="D107" t="n">
-        <v>0.304141</v>
+        <v>0.341613</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.419</v>
+        <v>0.430384</v>
       </c>
       <c r="C108" t="n">
-        <v>0.461713</v>
+        <v>0.477526</v>
       </c>
       <c r="D108" t="n">
-        <v>0.256099</v>
+        <v>0.303174</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.50756</v>
+        <v>0.491871</v>
       </c>
       <c r="C109" t="n">
-        <v>0.541859</v>
+        <v>0.547188</v>
       </c>
       <c r="D109" t="n">
-        <v>0.261613</v>
+        <v>0.311205</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.264374</v>
+        <v>0.287448</v>
       </c>
       <c r="C110" t="n">
-        <v>0.283084</v>
+        <v>0.306065</v>
       </c>
       <c r="D110" t="n">
-        <v>0.259249</v>
+        <v>0.294093</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.267982</v>
+        <v>0.296877</v>
       </c>
       <c r="C111" t="n">
-        <v>0.283527</v>
+        <v>0.30542</v>
       </c>
       <c r="D111" t="n">
-        <v>0.263625</v>
+        <v>0.299399</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.269152</v>
+        <v>0.316553</v>
       </c>
       <c r="C112" t="n">
-        <v>0.286561</v>
+        <v>0.329922</v>
       </c>
       <c r="D112" t="n">
-        <v>0.266406</v>
+        <v>0.309307</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.278232</v>
+        <v>0.308359</v>
       </c>
       <c r="C113" t="n">
-        <v>0.300787</v>
+        <v>0.32773</v>
       </c>
       <c r="D113" t="n">
-        <v>0.264415</v>
+        <v>0.313203</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.27785</v>
+        <v>0.320095</v>
       </c>
       <c r="C114" t="n">
-        <v>0.294902</v>
+        <v>0.329091</v>
       </c>
       <c r="D114" t="n">
-        <v>0.26633</v>
+        <v>0.317529</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.280821</v>
+        <v>0.328796</v>
       </c>
       <c r="C115" t="n">
-        <v>0.29845</v>
+        <v>0.343432</v>
       </c>
       <c r="D115" t="n">
-        <v>0.268371</v>
+        <v>0.328409</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.287054</v>
+        <v>0.332935</v>
       </c>
       <c r="C116" t="n">
-        <v>0.307607</v>
+        <v>0.339727</v>
       </c>
       <c r="D116" t="n">
-        <v>0.272643</v>
+        <v>0.317099</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.297865</v>
+        <v>0.336397</v>
       </c>
       <c r="C117" t="n">
-        <v>0.324216</v>
+        <v>0.348903</v>
       </c>
       <c r="D117" t="n">
-        <v>0.275679</v>
+        <v>0.323589</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.305487</v>
+        <v>0.339817</v>
       </c>
       <c r="C118" t="n">
-        <v>0.333201</v>
+        <v>0.355486</v>
       </c>
       <c r="D118" t="n">
-        <v>0.280142</v>
+        <v>0.322065</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.319018</v>
+        <v>0.359707</v>
       </c>
       <c r="C119" t="n">
-        <v>0.346615</v>
+        <v>0.384455</v>
       </c>
       <c r="D119" t="n">
-        <v>0.288049</v>
+        <v>0.343247</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.342065</v>
+        <v>0.393635</v>
       </c>
       <c r="C120" t="n">
-        <v>0.372085</v>
+        <v>0.419573</v>
       </c>
       <c r="D120" t="n">
-        <v>0.295915</v>
+        <v>0.360917</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.376639</v>
+        <v>0.428284</v>
       </c>
       <c r="C121" t="n">
-        <v>0.417766</v>
+        <v>0.445791</v>
       </c>
       <c r="D121" t="n">
-        <v>0.311833</v>
+        <v>0.373133</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.421636</v>
+        <v>0.477864</v>
       </c>
       <c r="C122" t="n">
-        <v>0.470098</v>
+        <v>0.500961</v>
       </c>
       <c r="D122" t="n">
-        <v>0.336337</v>
+        <v>0.395543</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.499999</v>
+        <v>0.546338</v>
       </c>
       <c r="C123" t="n">
-        <v>0.552471</v>
+        <v>0.571742</v>
       </c>
       <c r="D123" t="n">
-        <v>0.269433</v>
+        <v>0.312272</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.285887</v>
+        <v>0.328248</v>
       </c>
       <c r="C124" t="n">
-        <v>0.32527</v>
+        <v>0.336616</v>
       </c>
       <c r="D124" t="n">
-        <v>0.275994</v>
+        <v>0.324632</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.283293</v>
+        <v>0.322478</v>
       </c>
       <c r="C125" t="n">
-        <v>0.309199</v>
+        <v>0.339853</v>
       </c>
       <c r="D125" t="n">
-        <v>0.268401</v>
+        <v>0.32392</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.281493</v>
+        <v>0.343187</v>
       </c>
       <c r="C126" t="n">
-        <v>0.30623</v>
+        <v>0.34211</v>
       </c>
       <c r="D126" t="n">
-        <v>0.266695</v>
+        <v>0.324834</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.291757</v>
+        <v>0.338437</v>
       </c>
       <c r="C127" t="n">
-        <v>0.31303</v>
+        <v>0.34217</v>
       </c>
       <c r="D127" t="n">
-        <v>0.269507</v>
+        <v>0.330468</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.293665</v>
+        <v>0.346951</v>
       </c>
       <c r="C128" t="n">
-        <v>0.316554</v>
+        <v>0.362326</v>
       </c>
       <c r="D128" t="n">
-        <v>0.276174</v>
+        <v>0.336417</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.307085</v>
+        <v>0.347191</v>
       </c>
       <c r="C129" t="n">
-        <v>0.31634</v>
+        <v>0.356657</v>
       </c>
       <c r="D129" t="n">
-        <v>0.273842</v>
+        <v>0.330288</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.341847</v>
+        <v>0.353566</v>
       </c>
       <c r="C130" t="n">
-        <v>0.318143</v>
+        <v>0.3596</v>
       </c>
       <c r="D130" t="n">
-        <v>0.275315</v>
+        <v>0.330586</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.309703</v>
+        <v>0.349893</v>
       </c>
       <c r="C131" t="n">
-        <v>0.341639</v>
+        <v>0.379687</v>
       </c>
       <c r="D131" t="n">
-        <v>0.285658</v>
+        <v>0.337162</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.324728</v>
+        <v>0.370675</v>
       </c>
       <c r="C132" t="n">
-        <v>0.405562</v>
+        <v>0.381134</v>
       </c>
       <c r="D132" t="n">
-        <v>0.296944</v>
+        <v>0.339577</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.342436</v>
+        <v>0.379677</v>
       </c>
       <c r="C133" t="n">
-        <v>0.375723</v>
+        <v>0.394185</v>
       </c>
       <c r="D133" t="n">
-        <v>0.295878</v>
+        <v>0.346871</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.363086</v>
+        <v>0.394808</v>
       </c>
       <c r="C134" t="n">
-        <v>0.411743</v>
+        <v>0.430144</v>
       </c>
       <c r="D134" t="n">
-        <v>0.304948</v>
+        <v>0.354267</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.408699</v>
+        <v>0.428201</v>
       </c>
       <c r="C135" t="n">
-        <v>0.44584</v>
+        <v>0.439244</v>
       </c>
       <c r="D135" t="n">
-        <v>0.322644</v>
+        <v>0.367859</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.464154</v>
+        <v>0.466386</v>
       </c>
       <c r="C136" t="n">
-        <v>0.510744</v>
+        <v>0.497768</v>
       </c>
       <c r="D136" t="n">
-        <v>0.367399</v>
+        <v>0.397415</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.523196</v>
+        <v>0.546257</v>
       </c>
       <c r="C137" t="n">
-        <v>0.58507</v>
+        <v>0.579643</v>
       </c>
       <c r="D137" t="n">
-        <v>0.360926</v>
+        <v>0.344121</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.381397</v>
+        <v>0.366269</v>
       </c>
       <c r="C138" t="n">
-        <v>0.5063530000000001</v>
+        <v>0.358617</v>
       </c>
       <c r="D138" t="n">
-        <v>0.322086</v>
+        <v>0.337369</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.41251</v>
+        <v>0.34218</v>
       </c>
       <c r="C139" t="n">
-        <v>0.449483</v>
+        <v>0.378447</v>
       </c>
       <c r="D139" t="n">
-        <v>0.358863</v>
+        <v>0.348122</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.420844</v>
+        <v>0.402325</v>
       </c>
       <c r="C140" t="n">
-        <v>0.460383</v>
+        <v>0.405732</v>
       </c>
       <c r="D140" t="n">
-        <v>0.348234</v>
+        <v>0.350679</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.423708</v>
+        <v>0.361918</v>
       </c>
       <c r="C141" t="n">
-        <v>0.553493</v>
+        <v>0.403726</v>
       </c>
       <c r="D141" t="n">
-        <v>0.432989</v>
+        <v>0.353668</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.484269</v>
+        <v>0.365328</v>
       </c>
       <c r="C142" t="n">
-        <v>0.559465</v>
+        <v>0.392235</v>
       </c>
       <c r="D142" t="n">
-        <v>0.476232</v>
+        <v>0.386182</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.455353</v>
+        <v>0.451475</v>
       </c>
       <c r="C143" t="n">
-        <v>0.542947</v>
+        <v>0.399652</v>
       </c>
       <c r="D143" t="n">
-        <v>0.383914</v>
+        <v>0.372897</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.215762</v>
+        <v>0.190608</v>
       </c>
       <c r="C2" t="n">
-        <v>0.222967</v>
+        <v>0.204329</v>
       </c>
       <c r="D2" t="n">
-        <v>0.218597</v>
+        <v>0.202089</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.212437</v>
+        <v>0.1934</v>
       </c>
       <c r="C3" t="n">
-        <v>0.229977</v>
+        <v>0.207052</v>
       </c>
       <c r="D3" t="n">
-        <v>0.221997</v>
+        <v>0.203235</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.21649</v>
+        <v>0.20005</v>
       </c>
       <c r="C4" t="n">
-        <v>0.233048</v>
+        <v>0.215274</v>
       </c>
       <c r="D4" t="n">
-        <v>0.219698</v>
+        <v>0.206012</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.225511</v>
+        <v>0.208212</v>
       </c>
       <c r="C5" t="n">
-        <v>0.251847</v>
+        <v>0.226228</v>
       </c>
       <c r="D5" t="n">
-        <v>0.227008</v>
+        <v>0.208963</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.238139</v>
+        <v>0.218197</v>
       </c>
       <c r="C6" t="n">
-        <v>0.263488</v>
+        <v>0.243141</v>
       </c>
       <c r="D6" t="n">
-        <v>0.231312</v>
+        <v>0.215022</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.253969</v>
+        <v>0.237631</v>
       </c>
       <c r="C7" t="n">
-        <v>0.293654</v>
+        <v>0.270367</v>
       </c>
       <c r="D7" t="n">
-        <v>0.250846</v>
+        <v>0.224723</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.29425</v>
+        <v>0.264814</v>
       </c>
       <c r="C8" t="n">
-        <v>0.332709</v>
+        <v>0.301828</v>
       </c>
       <c r="D8" t="n">
-        <v>0.262279</v>
+        <v>0.238735</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.352118</v>
+        <v>0.316558</v>
       </c>
       <c r="C9" t="n">
-        <v>0.389194</v>
+        <v>0.348891</v>
       </c>
       <c r="D9" t="n">
-        <v>0.22266</v>
+        <v>0.198276</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.205883</v>
+        <v>0.182549</v>
       </c>
       <c r="C10" t="n">
-        <v>0.219759</v>
+        <v>0.191614</v>
       </c>
       <c r="D10" t="n">
-        <v>0.228089</v>
+        <v>0.198496</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.215308</v>
+        <v>0.182882</v>
       </c>
       <c r="C11" t="n">
-        <v>0.221537</v>
+        <v>0.192155</v>
       </c>
       <c r="D11" t="n">
-        <v>0.224671</v>
+        <v>0.198583</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.209551</v>
+        <v>0.184162</v>
       </c>
       <c r="C12" t="n">
-        <v>0.213427</v>
+        <v>0.193067</v>
       </c>
       <c r="D12" t="n">
-        <v>0.216638</v>
+        <v>0.199028</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.199048</v>
+        <v>0.184513</v>
       </c>
       <c r="C13" t="n">
-        <v>0.208147</v>
+        <v>0.194249</v>
       </c>
       <c r="D13" t="n">
-        <v>0.213468</v>
+        <v>0.199178</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.200823</v>
+        <v>0.186318</v>
       </c>
       <c r="C14" t="n">
-        <v>0.213561</v>
+        <v>0.196987</v>
       </c>
       <c r="D14" t="n">
-        <v>0.217982</v>
+        <v>0.200047</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.206237</v>
+        <v>0.188194</v>
       </c>
       <c r="C15" t="n">
-        <v>0.219072</v>
+        <v>0.19937</v>
       </c>
       <c r="D15" t="n">
-        <v>0.225401</v>
+        <v>0.200667</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.208498</v>
+        <v>0.19097</v>
       </c>
       <c r="C16" t="n">
-        <v>0.219111</v>
+        <v>0.203058</v>
       </c>
       <c r="D16" t="n">
-        <v>0.225172</v>
+        <v>0.201781</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.21235</v>
+        <v>0.19439</v>
       </c>
       <c r="C17" t="n">
-        <v>0.223716</v>
+        <v>0.207493</v>
       </c>
       <c r="D17" t="n">
-        <v>0.219387</v>
+        <v>0.203047</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.220947</v>
+        <v>0.199005</v>
       </c>
       <c r="C18" t="n">
-        <v>0.237296</v>
+        <v>0.212931</v>
       </c>
       <c r="D18" t="n">
-        <v>0.231617</v>
+        <v>0.204516</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.229564</v>
+        <v>0.206049</v>
       </c>
       <c r="C19" t="n">
-        <v>0.244632</v>
+        <v>0.221596</v>
       </c>
       <c r="D19" t="n">
-        <v>0.233307</v>
+        <v>0.207602</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.248509</v>
+        <v>0.218544</v>
       </c>
       <c r="C20" t="n">
-        <v>0.264379</v>
+        <v>0.235535</v>
       </c>
       <c r="D20" t="n">
-        <v>0.236065</v>
+        <v>0.211662</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.272801</v>
+        <v>0.23528</v>
       </c>
       <c r="C21" t="n">
-        <v>0.278843</v>
+        <v>0.253604</v>
       </c>
       <c r="D21" t="n">
-        <v>0.245236</v>
+        <v>0.218018</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.293412</v>
+        <v>0.262827</v>
       </c>
       <c r="C22" t="n">
-        <v>0.305607</v>
+        <v>0.279792</v>
       </c>
       <c r="D22" t="n">
-        <v>0.249242</v>
+        <v>0.229836</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.337858</v>
+        <v>0.30508</v>
       </c>
       <c r="C23" t="n">
-        <v>0.355164</v>
+        <v>0.329673</v>
       </c>
       <c r="D23" t="n">
-        <v>0.213214</v>
+        <v>0.198065</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.199643</v>
+        <v>0.182856</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2073</v>
+        <v>0.190599</v>
       </c>
       <c r="D24" t="n">
-        <v>0.217279</v>
+        <v>0.198356</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.201943</v>
+        <v>0.183402</v>
       </c>
       <c r="C25" t="n">
-        <v>0.210319</v>
+        <v>0.191314</v>
       </c>
       <c r="D25" t="n">
-        <v>0.225119</v>
+        <v>0.198584</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.206884</v>
+        <v>0.184524</v>
       </c>
       <c r="C26" t="n">
-        <v>0.212999</v>
+        <v>0.192112</v>
       </c>
       <c r="D26" t="n">
-        <v>0.221601</v>
+        <v>0.198849</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.206307</v>
+        <v>0.185427</v>
       </c>
       <c r="C27" t="n">
-        <v>0.216513</v>
+        <v>0.193447</v>
       </c>
       <c r="D27" t="n">
-        <v>0.220251</v>
+        <v>0.199172</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.207412</v>
+        <v>0.186855</v>
       </c>
       <c r="C28" t="n">
-        <v>0.222606</v>
+        <v>0.19501</v>
       </c>
       <c r="D28" t="n">
-        <v>0.221718</v>
+        <v>0.199801</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.212921</v>
+        <v>0.188994</v>
       </c>
       <c r="C29" t="n">
-        <v>0.223728</v>
+        <v>0.197712</v>
       </c>
       <c r="D29" t="n">
-        <v>0.235387</v>
+        <v>0.200475</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.224359</v>
+        <v>0.191788</v>
       </c>
       <c r="C30" t="n">
-        <v>0.224224</v>
+        <v>0.20028</v>
       </c>
       <c r="D30" t="n">
-        <v>0.221941</v>
+        <v>0.201369</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.216144</v>
+        <v>0.195385</v>
       </c>
       <c r="C31" t="n">
-        <v>0.225748</v>
+        <v>0.20412</v>
       </c>
       <c r="D31" t="n">
-        <v>0.23195</v>
+        <v>0.20243</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.234914</v>
+        <v>0.200244</v>
       </c>
       <c r="C32" t="n">
-        <v>0.235127</v>
+        <v>0.209594</v>
       </c>
       <c r="D32" t="n">
-        <v>0.228569</v>
+        <v>0.2042</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.230591</v>
+        <v>0.207774</v>
       </c>
       <c r="C33" t="n">
-        <v>0.237743</v>
+        <v>0.218208</v>
       </c>
       <c r="D33" t="n">
-        <v>0.224758</v>
+        <v>0.206852</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.239018</v>
+        <v>0.218698</v>
       </c>
       <c r="C34" t="n">
-        <v>0.24627</v>
+        <v>0.228929</v>
       </c>
       <c r="D34" t="n">
-        <v>0.224269</v>
+        <v>0.210289</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.25359</v>
+        <v>0.234381</v>
       </c>
       <c r="C35" t="n">
-        <v>0.266792</v>
+        <v>0.245184</v>
       </c>
       <c r="D35" t="n">
-        <v>0.238752</v>
+        <v>0.215648</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.292469</v>
+        <v>0.261142</v>
       </c>
       <c r="C36" t="n">
-        <v>0.299818</v>
+        <v>0.271857</v>
       </c>
       <c r="D36" t="n">
-        <v>0.252428</v>
+        <v>0.225536</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.326287</v>
+        <v>0.300596</v>
       </c>
       <c r="C37" t="n">
-        <v>0.34525</v>
+        <v>0.313573</v>
       </c>
       <c r="D37" t="n">
-        <v>0.225181</v>
+        <v>0.198406</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.212522</v>
+        <v>0.183121</v>
       </c>
       <c r="C38" t="n">
-        <v>0.219279</v>
+        <v>0.190915</v>
       </c>
       <c r="D38" t="n">
-        <v>0.226344</v>
+        <v>0.198541</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.203395</v>
+        <v>0.18401</v>
       </c>
       <c r="C39" t="n">
-        <v>0.220424</v>
+        <v>0.191873</v>
       </c>
       <c r="D39" t="n">
-        <v>0.225169</v>
+        <v>0.198942</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.205088</v>
+        <v>0.184831</v>
       </c>
       <c r="C40" t="n">
-        <v>0.216709</v>
+        <v>0.192708</v>
       </c>
       <c r="D40" t="n">
-        <v>0.231623</v>
+        <v>0.199178</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.217988</v>
+        <v>0.185766</v>
       </c>
       <c r="C41" t="n">
-        <v>0.220735</v>
+        <v>0.193936</v>
       </c>
       <c r="D41" t="n">
-        <v>0.229322</v>
+        <v>0.199578</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.214007</v>
+        <v>0.187326</v>
       </c>
       <c r="C42" t="n">
-        <v>0.22027</v>
+        <v>0.195132</v>
       </c>
       <c r="D42" t="n">
-        <v>0.229613</v>
+        <v>0.200049</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.216369</v>
+        <v>0.189031</v>
       </c>
       <c r="C43" t="n">
-        <v>0.227027</v>
+        <v>0.197066</v>
       </c>
       <c r="D43" t="n">
-        <v>0.228345</v>
+        <v>0.200583</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.211205</v>
+        <v>0.191644</v>
       </c>
       <c r="C44" t="n">
-        <v>0.219683</v>
+        <v>0.199996</v>
       </c>
       <c r="D44" t="n">
-        <v>0.222116</v>
+        <v>0.20147</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.21642</v>
+        <v>0.194735</v>
       </c>
       <c r="C45" t="n">
-        <v>0.227186</v>
+        <v>0.204094</v>
       </c>
       <c r="D45" t="n">
-        <v>0.230879</v>
+        <v>0.202697</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.230501</v>
+        <v>0.199125</v>
       </c>
       <c r="C46" t="n">
-        <v>0.24327</v>
+        <v>0.209114</v>
       </c>
       <c r="D46" t="n">
-        <v>0.239936</v>
+        <v>0.204503</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.239274</v>
+        <v>0.205967</v>
       </c>
       <c r="C47" t="n">
-        <v>0.249678</v>
+        <v>0.216519</v>
       </c>
       <c r="D47" t="n">
-        <v>0.237968</v>
+        <v>0.206743</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.249253</v>
+        <v>0.215558</v>
       </c>
       <c r="C48" t="n">
-        <v>0.261801</v>
+        <v>0.227285</v>
       </c>
       <c r="D48" t="n">
-        <v>0.242547</v>
+        <v>0.210242</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.263227</v>
+        <v>0.230051</v>
       </c>
       <c r="C49" t="n">
-        <v>0.281045</v>
+        <v>0.242643</v>
       </c>
       <c r="D49" t="n">
-        <v>0.245428</v>
+        <v>0.215354</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.291619</v>
+        <v>0.25246</v>
       </c>
       <c r="C50" t="n">
-        <v>0.305</v>
+        <v>0.269634</v>
       </c>
       <c r="D50" t="n">
-        <v>0.258362</v>
+        <v>0.224894</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.337161</v>
+        <v>0.290413</v>
       </c>
       <c r="C51" t="n">
-        <v>0.353766</v>
+        <v>0.305769</v>
       </c>
       <c r="D51" t="n">
-        <v>0.229221</v>
+        <v>0.199255</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.404328</v>
+        <v>0.346081</v>
       </c>
       <c r="C52" t="n">
-        <v>0.421915</v>
+        <v>0.36505</v>
       </c>
       <c r="D52" t="n">
-        <v>0.230777</v>
+        <v>0.199493</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.215865</v>
+        <v>0.18603</v>
       </c>
       <c r="C53" t="n">
-        <v>0.219398</v>
+        <v>0.194346</v>
       </c>
       <c r="D53" t="n">
-        <v>0.22456</v>
+        <v>0.199832</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.213695</v>
+        <v>0.187042</v>
       </c>
       <c r="C54" t="n">
-        <v>0.222654</v>
+        <v>0.195482</v>
       </c>
       <c r="D54" t="n">
-        <v>0.227854</v>
+        <v>0.200246</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.215746</v>
+        <v>0.188329</v>
       </c>
       <c r="C55" t="n">
-        <v>0.216753</v>
+        <v>0.196915</v>
       </c>
       <c r="D55" t="n">
-        <v>0.221352</v>
+        <v>0.20075</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.215805</v>
+        <v>0.190021</v>
       </c>
       <c r="C56" t="n">
-        <v>0.219511</v>
+        <v>0.198584</v>
       </c>
       <c r="D56" t="n">
-        <v>0.225355</v>
+        <v>0.201368</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.219333</v>
+        <v>0.191823</v>
       </c>
       <c r="C57" t="n">
-        <v>0.233951</v>
+        <v>0.200815</v>
       </c>
       <c r="D57" t="n">
-        <v>0.230893</v>
+        <v>0.202114</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.227885</v>
+        <v>0.194216</v>
       </c>
       <c r="C58" t="n">
-        <v>0.238859</v>
+        <v>0.20399</v>
       </c>
       <c r="D58" t="n">
-        <v>0.233534</v>
+        <v>0.203025</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.230141</v>
+        <v>0.197429</v>
       </c>
       <c r="C59" t="n">
-        <v>0.236999</v>
+        <v>0.208124</v>
       </c>
       <c r="D59" t="n">
-        <v>0.234943</v>
+        <v>0.204206</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.235423</v>
+        <v>0.202037</v>
       </c>
       <c r="C60" t="n">
-        <v>0.245832</v>
+        <v>0.213117</v>
       </c>
       <c r="D60" t="n">
-        <v>0.237402</v>
+        <v>0.205968</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.237585</v>
+        <v>0.207845</v>
       </c>
       <c r="C61" t="n">
-        <v>0.250929</v>
+        <v>0.220426</v>
       </c>
       <c r="D61" t="n">
-        <v>0.232846</v>
+        <v>0.208245</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.233623</v>
+        <v>0.216593</v>
       </c>
       <c r="C62" t="n">
-        <v>0.255657</v>
+        <v>0.23007</v>
       </c>
       <c r="D62" t="n">
-        <v>0.233942</v>
+        <v>0.211567</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.25884</v>
+        <v>0.230897</v>
       </c>
       <c r="C63" t="n">
-        <v>0.275262</v>
+        <v>0.244895</v>
       </c>
       <c r="D63" t="n">
-        <v>0.232703</v>
+        <v>0.217274</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.285612</v>
+        <v>0.251754</v>
       </c>
       <c r="C64" t="n">
-        <v>0.304652</v>
+        <v>0.26818</v>
       </c>
       <c r="D64" t="n">
-        <v>0.256966</v>
+        <v>0.226707</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.324923</v>
+        <v>0.286692</v>
       </c>
       <c r="C65" t="n">
-        <v>0.330175</v>
+        <v>0.304123</v>
       </c>
       <c r="D65" t="n">
-        <v>0.259401</v>
+        <v>0.242584</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.366186</v>
+        <v>0.33743</v>
       </c>
       <c r="C66" t="n">
-        <v>0.396625</v>
+        <v>0.357465</v>
       </c>
       <c r="D66" t="n">
-        <v>0.228584</v>
+        <v>0.203567</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.228059</v>
+        <v>0.19689</v>
       </c>
       <c r="C67" t="n">
-        <v>0.241802</v>
+        <v>0.202384</v>
       </c>
       <c r="D67" t="n">
-        <v>0.238421</v>
+        <v>0.204178</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.219652</v>
+        <v>0.198</v>
       </c>
       <c r="C68" t="n">
-        <v>0.224807</v>
+        <v>0.203654</v>
       </c>
       <c r="D68" t="n">
-        <v>0.225384</v>
+        <v>0.204688</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.216697</v>
+        <v>0.199406</v>
       </c>
       <c r="C69" t="n">
-        <v>0.233126</v>
+        <v>0.20501</v>
       </c>
       <c r="D69" t="n">
-        <v>0.232135</v>
+        <v>0.205298</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.221593</v>
+        <v>0.201046</v>
       </c>
       <c r="C70" t="n">
-        <v>0.240313</v>
+        <v>0.206657</v>
       </c>
       <c r="D70" t="n">
-        <v>0.236759</v>
+        <v>0.206137</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.226897</v>
+        <v>0.202762</v>
       </c>
       <c r="C71" t="n">
-        <v>0.233012</v>
+        <v>0.209157</v>
       </c>
       <c r="D71" t="n">
-        <v>0.225986</v>
+        <v>0.207057</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.226772</v>
+        <v>0.205252</v>
       </c>
       <c r="C72" t="n">
-        <v>0.236555</v>
+        <v>0.211874</v>
       </c>
       <c r="D72" t="n">
-        <v>0.227481</v>
+        <v>0.208272</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.21871</v>
+        <v>0.20834</v>
       </c>
       <c r="C73" t="n">
-        <v>0.230828</v>
+        <v>0.215836</v>
       </c>
       <c r="D73" t="n">
-        <v>0.228234</v>
+        <v>0.209534</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.231865</v>
+        <v>0.212932</v>
       </c>
       <c r="C74" t="n">
-        <v>0.246738</v>
+        <v>0.220983</v>
       </c>
       <c r="D74" t="n">
-        <v>0.232028</v>
+        <v>0.211182</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.231465</v>
+        <v>0.219396</v>
       </c>
       <c r="C75" t="n">
-        <v>0.249357</v>
+        <v>0.228834</v>
       </c>
       <c r="D75" t="n">
-        <v>0.233954</v>
+        <v>0.213631</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.254022</v>
+        <v>0.227914</v>
       </c>
       <c r="C76" t="n">
-        <v>0.267209</v>
+        <v>0.239265</v>
       </c>
       <c r="D76" t="n">
-        <v>0.237913</v>
+        <v>0.217155</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.266669</v>
+        <v>0.24127</v>
       </c>
       <c r="C77" t="n">
-        <v>0.279454</v>
+        <v>0.254489</v>
       </c>
       <c r="D77" t="n">
-        <v>0.246158</v>
+        <v>0.222492</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.287912</v>
+        <v>0.261361</v>
       </c>
       <c r="C78" t="n">
-        <v>0.307355</v>
+        <v>0.277079</v>
       </c>
       <c r="D78" t="n">
-        <v>0.257504</v>
+        <v>0.230857</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.324638</v>
+        <v>0.291141</v>
       </c>
       <c r="C79" t="n">
-        <v>0.347983</v>
+        <v>0.30962</v>
       </c>
       <c r="D79" t="n">
-        <v>0.27211</v>
+        <v>0.245684</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.379762</v>
+        <v>0.352709</v>
       </c>
       <c r="C80" t="n">
-        <v>0.406962</v>
+        <v>0.360799</v>
       </c>
       <c r="D80" t="n">
-        <v>0.247009</v>
+        <v>0.225875</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.249289</v>
+        <v>0.223045</v>
       </c>
       <c r="C81" t="n">
-        <v>0.245383</v>
+        <v>0.226282</v>
       </c>
       <c r="D81" t="n">
-        <v>0.243785</v>
+        <v>0.227169</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.236282</v>
+        <v>0.236697</v>
       </c>
       <c r="C82" t="n">
-        <v>0.24061</v>
+        <v>0.235984</v>
       </c>
       <c r="D82" t="n">
-        <v>0.250825</v>
+        <v>0.229589</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.247353</v>
+        <v>0.238157</v>
       </c>
       <c r="C83" t="n">
-        <v>0.25453</v>
+        <v>0.241497</v>
       </c>
       <c r="D83" t="n">
-        <v>0.255197</v>
+        <v>0.232086</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.251849</v>
+        <v>0.245698</v>
       </c>
       <c r="C84" t="n">
-        <v>0.256279</v>
+        <v>0.247299</v>
       </c>
       <c r="D84" t="n">
-        <v>0.253594</v>
+        <v>0.235361</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.256843</v>
+        <v>0.251498</v>
       </c>
       <c r="C85" t="n">
-        <v>0.261992</v>
+        <v>0.245127</v>
       </c>
       <c r="D85" t="n">
-        <v>0.26054</v>
+        <v>0.236944</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.260163</v>
+        <v>0.241641</v>
       </c>
       <c r="C86" t="n">
-        <v>0.265874</v>
+        <v>0.237733</v>
       </c>
       <c r="D86" t="n">
-        <v>0.262396</v>
+        <v>0.232552</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.269504</v>
+        <v>0.234543</v>
       </c>
       <c r="C87" t="n">
-        <v>0.279609</v>
+        <v>0.243845</v>
       </c>
       <c r="D87" t="n">
-        <v>0.266873</v>
+        <v>0.232534</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.259645</v>
+        <v>0.25021</v>
       </c>
       <c r="C88" t="n">
-        <v>0.273003</v>
+        <v>0.26251</v>
       </c>
       <c r="D88" t="n">
-        <v>0.260386</v>
+        <v>0.243109</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.262198</v>
+        <v>0.264634</v>
       </c>
       <c r="C89" t="n">
-        <v>0.274059</v>
+        <v>0.270184</v>
       </c>
       <c r="D89" t="n">
-        <v>0.260431</v>
+        <v>0.244671</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.27663</v>
+        <v>0.268315</v>
       </c>
       <c r="C90" t="n">
-        <v>0.284726</v>
+        <v>0.297529</v>
       </c>
       <c r="D90" t="n">
-        <v>0.258846</v>
+        <v>0.2606</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.283671</v>
+        <v>0.304748</v>
       </c>
       <c r="C91" t="n">
-        <v>0.307646</v>
+        <v>0.298915</v>
       </c>
       <c r="D91" t="n">
-        <v>0.275021</v>
+        <v>0.264662</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.327118</v>
+        <v>0.327694</v>
       </c>
       <c r="C92" t="n">
-        <v>0.336564</v>
+        <v>0.33397</v>
       </c>
       <c r="D92" t="n">
-        <v>0.282442</v>
+        <v>0.273487</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.357974</v>
+        <v>0.3613</v>
       </c>
       <c r="C93" t="n">
-        <v>0.368491</v>
+        <v>0.379405</v>
       </c>
       <c r="D93" t="n">
-        <v>0.293519</v>
+        <v>0.287688</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.395888</v>
+        <v>0.4133</v>
       </c>
       <c r="C94" t="n">
-        <v>0.429051</v>
+        <v>0.438698</v>
       </c>
       <c r="D94" t="n">
-        <v>0.299981</v>
+        <v>0.276604</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.278926</v>
+        <v>0.273915</v>
       </c>
       <c r="C95" t="n">
-        <v>0.299915</v>
+        <v>0.295566</v>
       </c>
       <c r="D95" t="n">
-        <v>0.293682</v>
+        <v>0.279371</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.269754</v>
+        <v>0.274388</v>
       </c>
       <c r="C96" t="n">
-        <v>0.292845</v>
+        <v>0.295856</v>
       </c>
       <c r="D96" t="n">
-        <v>0.299251</v>
+        <v>0.283241</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.275671</v>
+        <v>0.27494</v>
       </c>
       <c r="C97" t="n">
-        <v>0.297066</v>
+        <v>0.294051</v>
       </c>
       <c r="D97" t="n">
-        <v>0.294936</v>
+        <v>0.283175</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.285855</v>
+        <v>0.278457</v>
       </c>
       <c r="C98" t="n">
-        <v>0.300955</v>
+        <v>0.297269</v>
       </c>
       <c r="D98" t="n">
-        <v>0.296806</v>
+        <v>0.285716</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.281908</v>
+        <v>0.287285</v>
       </c>
       <c r="C99" t="n">
-        <v>0.30793</v>
+        <v>0.30868</v>
       </c>
       <c r="D99" t="n">
-        <v>0.306875</v>
+        <v>0.285685</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.284937</v>
+        <v>0.287535</v>
       </c>
       <c r="C100" t="n">
-        <v>0.299495</v>
+        <v>0.301997</v>
       </c>
       <c r="D100" t="n">
-        <v>0.292812</v>
+        <v>0.286656</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.276284</v>
+        <v>0.290247</v>
       </c>
       <c r="C101" t="n">
-        <v>0.300972</v>
+        <v>0.311282</v>
       </c>
       <c r="D101" t="n">
-        <v>0.297002</v>
+        <v>0.289819</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.287374</v>
+        <v>0.296484</v>
       </c>
       <c r="C102" t="n">
-        <v>0.304911</v>
+        <v>0.316099</v>
       </c>
       <c r="D102" t="n">
-        <v>0.294091</v>
+        <v>0.29061</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.292403</v>
+        <v>0.305298</v>
       </c>
       <c r="C103" t="n">
-        <v>0.322201</v>
+        <v>0.325098</v>
       </c>
       <c r="D103" t="n">
-        <v>0.298856</v>
+        <v>0.29595</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.315836</v>
+        <v>0.317436</v>
       </c>
       <c r="C104" t="n">
-        <v>0.32606</v>
+        <v>0.340762</v>
       </c>
       <c r="D104" t="n">
-        <v>0.298629</v>
+        <v>0.298337</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.310595</v>
+        <v>0.326723</v>
       </c>
       <c r="C105" t="n">
-        <v>0.366292</v>
+        <v>0.353959</v>
       </c>
       <c r="D105" t="n">
-        <v>0.328403</v>
+        <v>0.306879</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.353804</v>
+        <v>0.350402</v>
       </c>
       <c r="C106" t="n">
-        <v>0.38741</v>
+        <v>0.380064</v>
       </c>
       <c r="D106" t="n">
-        <v>0.329493</v>
+        <v>0.317945</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.382513</v>
+        <v>0.382461</v>
       </c>
       <c r="C107" t="n">
-        <v>0.411519</v>
+        <v>0.423601</v>
       </c>
       <c r="D107" t="n">
-        <v>0.341613</v>
+        <v>0.334176</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.430384</v>
+        <v>0.439079</v>
       </c>
       <c r="C108" t="n">
-        <v>0.477526</v>
+        <v>0.484229</v>
       </c>
       <c r="D108" t="n">
-        <v>0.303174</v>
+        <v>0.310459</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.491871</v>
+        <v>0.5086349999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>0.547188</v>
+        <v>0.572756</v>
       </c>
       <c r="D109" t="n">
-        <v>0.311205</v>
+        <v>0.309677</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.287448</v>
+        <v>0.296012</v>
       </c>
       <c r="C110" t="n">
-        <v>0.306065</v>
+        <v>0.314701</v>
       </c>
       <c r="D110" t="n">
-        <v>0.294093</v>
+        <v>0.300048</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.296877</v>
+        <v>0.31393</v>
       </c>
       <c r="C111" t="n">
-        <v>0.30542</v>
+        <v>0.316768</v>
       </c>
       <c r="D111" t="n">
-        <v>0.299399</v>
+        <v>0.296897</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.316553</v>
+        <v>0.30819</v>
       </c>
       <c r="C112" t="n">
-        <v>0.329922</v>
+        <v>0.34835</v>
       </c>
       <c r="D112" t="n">
-        <v>0.309307</v>
+        <v>0.313371</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.308359</v>
+        <v>0.314272</v>
       </c>
       <c r="C113" t="n">
-        <v>0.32773</v>
+        <v>0.330092</v>
       </c>
       <c r="D113" t="n">
-        <v>0.313203</v>
+        <v>0.312806</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.320095</v>
+        <v>0.305215</v>
       </c>
       <c r="C114" t="n">
-        <v>0.329091</v>
+        <v>0.32167</v>
       </c>
       <c r="D114" t="n">
-        <v>0.317529</v>
+        <v>0.301203</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.328796</v>
+        <v>0.309598</v>
       </c>
       <c r="C115" t="n">
-        <v>0.343432</v>
+        <v>0.322148</v>
       </c>
       <c r="D115" t="n">
-        <v>0.328409</v>
+        <v>0.302316</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.332935</v>
+        <v>0.318106</v>
       </c>
       <c r="C116" t="n">
-        <v>0.339727</v>
+        <v>0.32776</v>
       </c>
       <c r="D116" t="n">
-        <v>0.317099</v>
+        <v>0.30296</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.336397</v>
+        <v>0.322841</v>
       </c>
       <c r="C117" t="n">
-        <v>0.348903</v>
+        <v>0.342705</v>
       </c>
       <c r="D117" t="n">
-        <v>0.323589</v>
+        <v>0.319208</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.339817</v>
+        <v>0.336769</v>
       </c>
       <c r="C118" t="n">
-        <v>0.355486</v>
+        <v>0.348425</v>
       </c>
       <c r="D118" t="n">
-        <v>0.322065</v>
+        <v>0.309203</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.359707</v>
+        <v>0.344216</v>
       </c>
       <c r="C119" t="n">
-        <v>0.384455</v>
+        <v>0.363699</v>
       </c>
       <c r="D119" t="n">
-        <v>0.343247</v>
+        <v>0.318326</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.393635</v>
+        <v>0.36606</v>
       </c>
       <c r="C120" t="n">
-        <v>0.419573</v>
+        <v>0.384911</v>
       </c>
       <c r="D120" t="n">
-        <v>0.360917</v>
+        <v>0.324492</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.428284</v>
+        <v>0.391211</v>
       </c>
       <c r="C121" t="n">
-        <v>0.445791</v>
+        <v>0.41867</v>
       </c>
       <c r="D121" t="n">
-        <v>0.373133</v>
+        <v>0.340712</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.477864</v>
+        <v>0.441614</v>
       </c>
       <c r="C122" t="n">
-        <v>0.500961</v>
+        <v>0.478659</v>
       </c>
       <c r="D122" t="n">
-        <v>0.395543</v>
+        <v>0.3601</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.546338</v>
+        <v>0.514208</v>
       </c>
       <c r="C123" t="n">
-        <v>0.571742</v>
+        <v>0.556034</v>
       </c>
       <c r="D123" t="n">
-        <v>0.312272</v>
+        <v>0.32338</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.328248</v>
+        <v>0.321297</v>
       </c>
       <c r="C124" t="n">
-        <v>0.336616</v>
+        <v>0.34117</v>
       </c>
       <c r="D124" t="n">
-        <v>0.324632</v>
+        <v>0.324522</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.322478</v>
+        <v>0.326359</v>
       </c>
       <c r="C125" t="n">
-        <v>0.339853</v>
+        <v>0.334815</v>
       </c>
       <c r="D125" t="n">
-        <v>0.32392</v>
+        <v>0.328704</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.343187</v>
+        <v>0.321409</v>
       </c>
       <c r="C126" t="n">
-        <v>0.34211</v>
+        <v>0.343369</v>
       </c>
       <c r="D126" t="n">
-        <v>0.324834</v>
+        <v>0.348286</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.338437</v>
+        <v>0.327871</v>
       </c>
       <c r="C127" t="n">
-        <v>0.34217</v>
+        <v>0.34089</v>
       </c>
       <c r="D127" t="n">
-        <v>0.330468</v>
+        <v>0.321294</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.346951</v>
+        <v>0.32722</v>
       </c>
       <c r="C128" t="n">
-        <v>0.362326</v>
+        <v>0.353685</v>
       </c>
       <c r="D128" t="n">
-        <v>0.336417</v>
+        <v>0.34507</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.347191</v>
+        <v>0.354141</v>
       </c>
       <c r="C129" t="n">
-        <v>0.356657</v>
+        <v>0.363913</v>
       </c>
       <c r="D129" t="n">
-        <v>0.330288</v>
+        <v>0.332181</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.353566</v>
+        <v>0.338917</v>
       </c>
       <c r="C130" t="n">
-        <v>0.3596</v>
+        <v>0.366889</v>
       </c>
       <c r="D130" t="n">
-        <v>0.330586</v>
+        <v>0.341842</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.349893</v>
+        <v>0.394502</v>
       </c>
       <c r="C131" t="n">
-        <v>0.379687</v>
+        <v>0.373995</v>
       </c>
       <c r="D131" t="n">
-        <v>0.337162</v>
+        <v>0.397644</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.370675</v>
+        <v>0.382135</v>
       </c>
       <c r="C132" t="n">
-        <v>0.381134</v>
+        <v>0.454731</v>
       </c>
       <c r="D132" t="n">
-        <v>0.339577</v>
+        <v>0.385056</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.379677</v>
+        <v>0.388668</v>
       </c>
       <c r="C133" t="n">
-        <v>0.394185</v>
+        <v>0.401008</v>
       </c>
       <c r="D133" t="n">
-        <v>0.346871</v>
+        <v>0.345881</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.394808</v>
+        <v>0.408012</v>
       </c>
       <c r="C134" t="n">
-        <v>0.430144</v>
+        <v>0.514886</v>
       </c>
       <c r="D134" t="n">
-        <v>0.354267</v>
+        <v>0.401888</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.428201</v>
+        <v>0.450075</v>
       </c>
       <c r="C135" t="n">
-        <v>0.439244</v>
+        <v>0.45669</v>
       </c>
       <c r="D135" t="n">
-        <v>0.367859</v>
+        <v>0.359608</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.466386</v>
+        <v>0.502467</v>
       </c>
       <c r="C136" t="n">
-        <v>0.497768</v>
+        <v>0.511249</v>
       </c>
       <c r="D136" t="n">
-        <v>0.397415</v>
+        <v>0.375303</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.546257</v>
+        <v>0.554086</v>
       </c>
       <c r="C137" t="n">
-        <v>0.579643</v>
+        <v>0.671428</v>
       </c>
       <c r="D137" t="n">
-        <v>0.344121</v>
+        <v>0.55621</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.366269</v>
+        <v>0.584314</v>
       </c>
       <c r="C138" t="n">
-        <v>0.358617</v>
+        <v>0.573179</v>
       </c>
       <c r="D138" t="n">
-        <v>0.337369</v>
+        <v>0.486856</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.34218</v>
+        <v>0.486842</v>
       </c>
       <c r="C139" t="n">
-        <v>0.378447</v>
+        <v>0.492899</v>
       </c>
       <c r="D139" t="n">
-        <v>0.348122</v>
+        <v>0.467356</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.402325</v>
+        <v>0.461828</v>
       </c>
       <c r="C140" t="n">
-        <v>0.405732</v>
+        <v>0.461166</v>
       </c>
       <c r="D140" t="n">
-        <v>0.350679</v>
+        <v>0.450996</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.361918</v>
+        <v>0.513228</v>
       </c>
       <c r="C141" t="n">
-        <v>0.403726</v>
+        <v>0.519787</v>
       </c>
       <c r="D141" t="n">
-        <v>0.353668</v>
+        <v>0.5008359999999999</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.365328</v>
+        <v>0.487279</v>
       </c>
       <c r="C142" t="n">
-        <v>0.392235</v>
+        <v>0.5459310000000001</v>
       </c>
       <c r="D142" t="n">
-        <v>0.386182</v>
+        <v>0.556707</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.451475</v>
+        <v>0.581939</v>
       </c>
       <c r="C143" t="n">
-        <v>0.399652</v>
+        <v>0.502605</v>
       </c>
       <c r="D143" t="n">
-        <v>0.372897</v>
+        <v>0.543915</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.190608</v>
+        <v>0.167771</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204329</v>
+        <v>0.188235</v>
       </c>
       <c r="D2" t="n">
-        <v>0.202089</v>
+        <v>0.182413</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1934</v>
+        <v>0.171487</v>
       </c>
       <c r="C3" t="n">
-        <v>0.207052</v>
+        <v>0.191194</v>
       </c>
       <c r="D3" t="n">
-        <v>0.203235</v>
+        <v>0.18351</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.20005</v>
+        <v>0.177937</v>
       </c>
       <c r="C4" t="n">
-        <v>0.215274</v>
+        <v>0.199421</v>
       </c>
       <c r="D4" t="n">
-        <v>0.206012</v>
+        <v>0.186135</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.208212</v>
+        <v>0.186725</v>
       </c>
       <c r="C5" t="n">
-        <v>0.226228</v>
+        <v>0.209288</v>
       </c>
       <c r="D5" t="n">
-        <v>0.208963</v>
+        <v>0.188235</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.218197</v>
+        <v>0.194911</v>
       </c>
       <c r="C6" t="n">
-        <v>0.243141</v>
+        <v>0.224797</v>
       </c>
       <c r="D6" t="n">
-        <v>0.215022</v>
+        <v>0.19398</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.237631</v>
+        <v>0.214389</v>
       </c>
       <c r="C7" t="n">
-        <v>0.270367</v>
+        <v>0.249742</v>
       </c>
       <c r="D7" t="n">
-        <v>0.224723</v>
+        <v>0.203296</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.264814</v>
+        <v>0.245594</v>
       </c>
       <c r="C8" t="n">
-        <v>0.301828</v>
+        <v>0.278714</v>
       </c>
       <c r="D8" t="n">
-        <v>0.238735</v>
+        <v>0.214343</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.316558</v>
+        <v>0.294562</v>
       </c>
       <c r="C9" t="n">
-        <v>0.348891</v>
+        <v>0.325557</v>
       </c>
       <c r="D9" t="n">
-        <v>0.198276</v>
+        <v>0.177917</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.182549</v>
+        <v>0.159954</v>
       </c>
       <c r="C10" t="n">
-        <v>0.191614</v>
+        <v>0.175086</v>
       </c>
       <c r="D10" t="n">
-        <v>0.198496</v>
+        <v>0.177965</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.182882</v>
+        <v>0.160479</v>
       </c>
       <c r="C11" t="n">
-        <v>0.192155</v>
+        <v>0.175449</v>
       </c>
       <c r="D11" t="n">
-        <v>0.198583</v>
+        <v>0.178435</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.184162</v>
+        <v>0.161471</v>
       </c>
       <c r="C12" t="n">
-        <v>0.193067</v>
+        <v>0.176528</v>
       </c>
       <c r="D12" t="n">
-        <v>0.199028</v>
+        <v>0.179243</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.184513</v>
+        <v>0.162817</v>
       </c>
       <c r="C13" t="n">
-        <v>0.194249</v>
+        <v>0.17763</v>
       </c>
       <c r="D13" t="n">
-        <v>0.199178</v>
+        <v>0.17905</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.186318</v>
+        <v>0.164332</v>
       </c>
       <c r="C14" t="n">
-        <v>0.196987</v>
+        <v>0.180686</v>
       </c>
       <c r="D14" t="n">
-        <v>0.200047</v>
+        <v>0.17985</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.188194</v>
+        <v>0.166533</v>
       </c>
       <c r="C15" t="n">
-        <v>0.19937</v>
+        <v>0.183347</v>
       </c>
       <c r="D15" t="n">
-        <v>0.200667</v>
+        <v>0.180641</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.19097</v>
+        <v>0.169842</v>
       </c>
       <c r="C16" t="n">
-        <v>0.203058</v>
+        <v>0.187163</v>
       </c>
       <c r="D16" t="n">
-        <v>0.201781</v>
+        <v>0.181487</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.19439</v>
+        <v>0.173554</v>
       </c>
       <c r="C17" t="n">
-        <v>0.207493</v>
+        <v>0.191813</v>
       </c>
       <c r="D17" t="n">
-        <v>0.203047</v>
+        <v>0.182814</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.199005</v>
+        <v>0.179169</v>
       </c>
       <c r="C18" t="n">
-        <v>0.212931</v>
+        <v>0.197447</v>
       </c>
       <c r="D18" t="n">
-        <v>0.204516</v>
+        <v>0.184464</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.206049</v>
+        <v>0.187552</v>
       </c>
       <c r="C19" t="n">
-        <v>0.221596</v>
+        <v>0.205709</v>
       </c>
       <c r="D19" t="n">
-        <v>0.207602</v>
+        <v>0.186975</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.218544</v>
+        <v>0.199292</v>
       </c>
       <c r="C20" t="n">
-        <v>0.235535</v>
+        <v>0.218936</v>
       </c>
       <c r="D20" t="n">
-        <v>0.211662</v>
+        <v>0.19058</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.23528</v>
+        <v>0.219572</v>
       </c>
       <c r="C21" t="n">
-        <v>0.253604</v>
+        <v>0.236595</v>
       </c>
       <c r="D21" t="n">
-        <v>0.218018</v>
+        <v>0.19635</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.262827</v>
+        <v>0.248423</v>
       </c>
       <c r="C22" t="n">
-        <v>0.279792</v>
+        <v>0.262131</v>
       </c>
       <c r="D22" t="n">
-        <v>0.229836</v>
+        <v>0.206024</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.30508</v>
+        <v>0.294077</v>
       </c>
       <c r="C23" t="n">
-        <v>0.329673</v>
+        <v>0.310437</v>
       </c>
       <c r="D23" t="n">
-        <v>0.198065</v>
+        <v>0.177423</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.182856</v>
+        <v>0.1616</v>
       </c>
       <c r="C24" t="n">
-        <v>0.190599</v>
+        <v>0.174833</v>
       </c>
       <c r="D24" t="n">
-        <v>0.198356</v>
+        <v>0.177931</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.183402</v>
+        <v>0.162333</v>
       </c>
       <c r="C25" t="n">
-        <v>0.191314</v>
+        <v>0.175531</v>
       </c>
       <c r="D25" t="n">
-        <v>0.198584</v>
+        <v>0.177855</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.184524</v>
+        <v>0.163261</v>
       </c>
       <c r="C26" t="n">
-        <v>0.192112</v>
+        <v>0.176449</v>
       </c>
       <c r="D26" t="n">
-        <v>0.198849</v>
+        <v>0.177956</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.185427</v>
+        <v>0.164501</v>
       </c>
       <c r="C27" t="n">
-        <v>0.193447</v>
+        <v>0.177959</v>
       </c>
       <c r="D27" t="n">
-        <v>0.199172</v>
+        <v>0.178552</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.186855</v>
+        <v>0.166108</v>
       </c>
       <c r="C28" t="n">
-        <v>0.19501</v>
+        <v>0.179992</v>
       </c>
       <c r="D28" t="n">
-        <v>0.199801</v>
+        <v>0.178889</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.188994</v>
+        <v>0.168298</v>
       </c>
       <c r="C29" t="n">
-        <v>0.197712</v>
+        <v>0.182899</v>
       </c>
       <c r="D29" t="n">
-        <v>0.200475</v>
+        <v>0.179901</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.191788</v>
+        <v>0.171386</v>
       </c>
       <c r="C30" t="n">
-        <v>0.20028</v>
+        <v>0.185765</v>
       </c>
       <c r="D30" t="n">
-        <v>0.201369</v>
+        <v>0.180593</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.195385</v>
+        <v>0.174971</v>
       </c>
       <c r="C31" t="n">
-        <v>0.20412</v>
+        <v>0.189829</v>
       </c>
       <c r="D31" t="n">
-        <v>0.20243</v>
+        <v>0.181533</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.200244</v>
+        <v>0.180635</v>
       </c>
       <c r="C32" t="n">
-        <v>0.209594</v>
+        <v>0.195791</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2042</v>
+        <v>0.183039</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.207774</v>
+        <v>0.188238</v>
       </c>
       <c r="C33" t="n">
-        <v>0.218208</v>
+        <v>0.204534</v>
       </c>
       <c r="D33" t="n">
-        <v>0.206852</v>
+        <v>0.185362</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.218698</v>
+        <v>0.198878</v>
       </c>
       <c r="C34" t="n">
-        <v>0.228929</v>
+        <v>0.215317</v>
       </c>
       <c r="D34" t="n">
-        <v>0.210289</v>
+        <v>0.188673</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.234381</v>
+        <v>0.215709</v>
       </c>
       <c r="C35" t="n">
-        <v>0.245184</v>
+        <v>0.231931</v>
       </c>
       <c r="D35" t="n">
-        <v>0.215648</v>
+        <v>0.193505</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.261142</v>
+        <v>0.243758</v>
       </c>
       <c r="C36" t="n">
-        <v>0.271857</v>
+        <v>0.259169</v>
       </c>
       <c r="D36" t="n">
-        <v>0.225536</v>
+        <v>0.202843</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.300596</v>
+        <v>0.286035</v>
       </c>
       <c r="C37" t="n">
-        <v>0.313573</v>
+        <v>0.300184</v>
       </c>
       <c r="D37" t="n">
-        <v>0.198406</v>
+        <v>0.17809</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.183121</v>
+        <v>0.162932</v>
       </c>
       <c r="C38" t="n">
-        <v>0.190915</v>
+        <v>0.175106</v>
       </c>
       <c r="D38" t="n">
-        <v>0.198541</v>
+        <v>0.17771</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.18401</v>
+        <v>0.163793</v>
       </c>
       <c r="C39" t="n">
-        <v>0.191873</v>
+        <v>0.176183</v>
       </c>
       <c r="D39" t="n">
-        <v>0.198942</v>
+        <v>0.178101</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.184831</v>
+        <v>0.164728</v>
       </c>
       <c r="C40" t="n">
-        <v>0.192708</v>
+        <v>0.176976</v>
       </c>
       <c r="D40" t="n">
-        <v>0.199178</v>
+        <v>0.178321</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.185766</v>
+        <v>0.165735</v>
       </c>
       <c r="C41" t="n">
-        <v>0.193936</v>
+        <v>0.178177</v>
       </c>
       <c r="D41" t="n">
-        <v>0.199578</v>
+        <v>0.178687</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.187326</v>
+        <v>0.167354</v>
       </c>
       <c r="C42" t="n">
-        <v>0.195132</v>
+        <v>0.179639</v>
       </c>
       <c r="D42" t="n">
-        <v>0.200049</v>
+        <v>0.179196</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.189031</v>
+        <v>0.169196</v>
       </c>
       <c r="C43" t="n">
-        <v>0.197066</v>
+        <v>0.181737</v>
       </c>
       <c r="D43" t="n">
-        <v>0.200583</v>
+        <v>0.17984</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.191644</v>
+        <v>0.171864</v>
       </c>
       <c r="C44" t="n">
-        <v>0.199996</v>
+        <v>0.184999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.20147</v>
+        <v>0.180557</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.194735</v>
+        <v>0.175376</v>
       </c>
       <c r="C45" t="n">
-        <v>0.204094</v>
+        <v>0.189219</v>
       </c>
       <c r="D45" t="n">
-        <v>0.202697</v>
+        <v>0.181781</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.199125</v>
+        <v>0.179991</v>
       </c>
       <c r="C46" t="n">
-        <v>0.209114</v>
+        <v>0.195005</v>
       </c>
       <c r="D46" t="n">
-        <v>0.204503</v>
+        <v>0.183617</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.205967</v>
+        <v>0.18743</v>
       </c>
       <c r="C47" t="n">
-        <v>0.216519</v>
+        <v>0.203</v>
       </c>
       <c r="D47" t="n">
-        <v>0.206743</v>
+        <v>0.185786</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.215558</v>
+        <v>0.197751</v>
       </c>
       <c r="C48" t="n">
-        <v>0.227285</v>
+        <v>0.214314</v>
       </c>
       <c r="D48" t="n">
-        <v>0.210242</v>
+        <v>0.18889</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.230051</v>
+        <v>0.213713</v>
       </c>
       <c r="C49" t="n">
-        <v>0.242643</v>
+        <v>0.230474</v>
       </c>
       <c r="D49" t="n">
-        <v>0.215354</v>
+        <v>0.19351</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.25246</v>
+        <v>0.23773</v>
       </c>
       <c r="C50" t="n">
-        <v>0.269634</v>
+        <v>0.257745</v>
       </c>
       <c r="D50" t="n">
-        <v>0.224894</v>
+        <v>0.202093</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.290413</v>
+        <v>0.275797</v>
       </c>
       <c r="C51" t="n">
-        <v>0.305769</v>
+        <v>0.293441</v>
       </c>
       <c r="D51" t="n">
-        <v>0.199255</v>
+        <v>0.177882</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.346081</v>
+        <v>0.331347</v>
       </c>
       <c r="C52" t="n">
-        <v>0.36505</v>
+        <v>0.349697</v>
       </c>
       <c r="D52" t="n">
-        <v>0.199493</v>
+        <v>0.178149</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.18603</v>
+        <v>0.168322</v>
       </c>
       <c r="C53" t="n">
-        <v>0.194346</v>
+        <v>0.177016</v>
       </c>
       <c r="D53" t="n">
-        <v>0.199832</v>
+        <v>0.178463</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.187042</v>
+        <v>0.168962</v>
       </c>
       <c r="C54" t="n">
-        <v>0.195482</v>
+        <v>0.178174</v>
       </c>
       <c r="D54" t="n">
-        <v>0.200246</v>
+        <v>0.178905</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.188329</v>
+        <v>0.170098</v>
       </c>
       <c r="C55" t="n">
-        <v>0.196915</v>
+        <v>0.179623</v>
       </c>
       <c r="D55" t="n">
-        <v>0.20075</v>
+        <v>0.17938</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.190021</v>
+        <v>0.171597</v>
       </c>
       <c r="C56" t="n">
-        <v>0.198584</v>
+        <v>0.181341</v>
       </c>
       <c r="D56" t="n">
-        <v>0.201368</v>
+        <v>0.17995</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.191823</v>
+        <v>0.173416</v>
       </c>
       <c r="C57" t="n">
-        <v>0.200815</v>
+        <v>0.183675</v>
       </c>
       <c r="D57" t="n">
-        <v>0.202114</v>
+        <v>0.180645</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.194216</v>
+        <v>0.175933</v>
       </c>
       <c r="C58" t="n">
-        <v>0.20399</v>
+        <v>0.187066</v>
       </c>
       <c r="D58" t="n">
-        <v>0.203025</v>
+        <v>0.181502</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.197429</v>
+        <v>0.179204</v>
       </c>
       <c r="C59" t="n">
-        <v>0.208124</v>
+        <v>0.191484</v>
       </c>
       <c r="D59" t="n">
-        <v>0.204206</v>
+        <v>0.18266</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.202037</v>
+        <v>0.184021</v>
       </c>
       <c r="C60" t="n">
-        <v>0.213117</v>
+        <v>0.1969</v>
       </c>
       <c r="D60" t="n">
-        <v>0.205968</v>
+        <v>0.184118</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.207845</v>
+        <v>0.190282</v>
       </c>
       <c r="C61" t="n">
-        <v>0.220426</v>
+        <v>0.204528</v>
       </c>
       <c r="D61" t="n">
-        <v>0.208245</v>
+        <v>0.186104</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.216593</v>
+        <v>0.199547</v>
       </c>
       <c r="C62" t="n">
-        <v>0.23007</v>
+        <v>0.215237</v>
       </c>
       <c r="D62" t="n">
-        <v>0.211567</v>
+        <v>0.189171</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.230897</v>
+        <v>0.214158</v>
       </c>
       <c r="C63" t="n">
-        <v>0.244895</v>
+        <v>0.231139</v>
       </c>
       <c r="D63" t="n">
-        <v>0.217274</v>
+        <v>0.194175</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.251754</v>
+        <v>0.23596</v>
       </c>
       <c r="C64" t="n">
-        <v>0.26818</v>
+        <v>0.255274</v>
       </c>
       <c r="D64" t="n">
-        <v>0.226707</v>
+        <v>0.202286</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.286692</v>
+        <v>0.268987</v>
       </c>
       <c r="C65" t="n">
-        <v>0.304123</v>
+        <v>0.2916</v>
       </c>
       <c r="D65" t="n">
-        <v>0.242584</v>
+        <v>0.216626</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.33743</v>
+        <v>0.32063</v>
       </c>
       <c r="C66" t="n">
-        <v>0.357465</v>
+        <v>0.345103</v>
       </c>
       <c r="D66" t="n">
-        <v>0.203567</v>
+        <v>0.191783</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.19689</v>
+        <v>0.183495</v>
       </c>
       <c r="C67" t="n">
-        <v>0.202384</v>
+        <v>0.191957</v>
       </c>
       <c r="D67" t="n">
-        <v>0.204178</v>
+        <v>0.192037</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.198</v>
+        <v>0.183816</v>
       </c>
       <c r="C68" t="n">
-        <v>0.203654</v>
+        <v>0.193169</v>
       </c>
       <c r="D68" t="n">
-        <v>0.204688</v>
+        <v>0.192423</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.199406</v>
+        <v>0.185039</v>
       </c>
       <c r="C69" t="n">
-        <v>0.20501</v>
+        <v>0.19479</v>
       </c>
       <c r="D69" t="n">
-        <v>0.205298</v>
+        <v>0.192892</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.201046</v>
+        <v>0.186488</v>
       </c>
       <c r="C70" t="n">
-        <v>0.206657</v>
+        <v>0.196617</v>
       </c>
       <c r="D70" t="n">
-        <v>0.206137</v>
+        <v>0.193458</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.202762</v>
+        <v>0.188263</v>
       </c>
       <c r="C71" t="n">
-        <v>0.209157</v>
+        <v>0.199109</v>
       </c>
       <c r="D71" t="n">
-        <v>0.207057</v>
+        <v>0.19413</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.205252</v>
+        <v>0.190594</v>
       </c>
       <c r="C72" t="n">
-        <v>0.211874</v>
+        <v>0.202271</v>
       </c>
       <c r="D72" t="n">
-        <v>0.208272</v>
+        <v>0.195044</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.20834</v>
+        <v>0.193704</v>
       </c>
       <c r="C73" t="n">
-        <v>0.215836</v>
+        <v>0.206518</v>
       </c>
       <c r="D73" t="n">
-        <v>0.209534</v>
+        <v>0.196321</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.212932</v>
+        <v>0.197854</v>
       </c>
       <c r="C74" t="n">
-        <v>0.220983</v>
+        <v>0.212134</v>
       </c>
       <c r="D74" t="n">
-        <v>0.211182</v>
+        <v>0.197865</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.219396</v>
+        <v>0.203992</v>
       </c>
       <c r="C75" t="n">
-        <v>0.228834</v>
+        <v>0.220435</v>
       </c>
       <c r="D75" t="n">
-        <v>0.213631</v>
+        <v>0.200157</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.227914</v>
+        <v>0.212839</v>
       </c>
       <c r="C76" t="n">
-        <v>0.239265</v>
+        <v>0.231347</v>
       </c>
       <c r="D76" t="n">
-        <v>0.217155</v>
+        <v>0.203493</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.24127</v>
+        <v>0.225412</v>
       </c>
       <c r="C77" t="n">
-        <v>0.254489</v>
+        <v>0.246627</v>
       </c>
       <c r="D77" t="n">
-        <v>0.222492</v>
+        <v>0.208517</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.261361</v>
+        <v>0.244631</v>
       </c>
       <c r="C78" t="n">
-        <v>0.277079</v>
+        <v>0.269114</v>
       </c>
       <c r="D78" t="n">
-        <v>0.230857</v>
+        <v>0.216672</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.291141</v>
+        <v>0.275775</v>
       </c>
       <c r="C79" t="n">
-        <v>0.30962</v>
+        <v>0.303548</v>
       </c>
       <c r="D79" t="n">
-        <v>0.245684</v>
+        <v>0.230288</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.352709</v>
+        <v>0.322644</v>
       </c>
       <c r="C80" t="n">
-        <v>0.360799</v>
+        <v>0.353332</v>
       </c>
       <c r="D80" t="n">
-        <v>0.225875</v>
+        <v>0.205437</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.223045</v>
+        <v>0.203742</v>
       </c>
       <c r="C81" t="n">
-        <v>0.226282</v>
+        <v>0.206028</v>
       </c>
       <c r="D81" t="n">
-        <v>0.227169</v>
+        <v>0.205687</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.236697</v>
+        <v>0.204511</v>
       </c>
       <c r="C82" t="n">
-        <v>0.235984</v>
+        <v>0.207022</v>
       </c>
       <c r="D82" t="n">
-        <v>0.229589</v>
+        <v>0.206097</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.238157</v>
+        <v>0.205655</v>
       </c>
       <c r="C83" t="n">
-        <v>0.241497</v>
+        <v>0.208262</v>
       </c>
       <c r="D83" t="n">
-        <v>0.232086</v>
+        <v>0.206602</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.245698</v>
+        <v>0.206959</v>
       </c>
       <c r="C84" t="n">
-        <v>0.247299</v>
+        <v>0.210031</v>
       </c>
       <c r="D84" t="n">
-        <v>0.235361</v>
+        <v>0.207183</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.251498</v>
+        <v>0.20849</v>
       </c>
       <c r="C85" t="n">
-        <v>0.245127</v>
+        <v>0.212073</v>
       </c>
       <c r="D85" t="n">
-        <v>0.236944</v>
+        <v>0.207827</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.241641</v>
+        <v>0.210536</v>
       </c>
       <c r="C86" t="n">
-        <v>0.237733</v>
+        <v>0.214811</v>
       </c>
       <c r="D86" t="n">
-        <v>0.232552</v>
+        <v>0.208753</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.234543</v>
+        <v>0.213238</v>
       </c>
       <c r="C87" t="n">
-        <v>0.243845</v>
+        <v>0.218458</v>
       </c>
       <c r="D87" t="n">
-        <v>0.232534</v>
+        <v>0.209877</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.25021</v>
+        <v>0.216993</v>
       </c>
       <c r="C88" t="n">
-        <v>0.26251</v>
+        <v>0.223728</v>
       </c>
       <c r="D88" t="n">
-        <v>0.243109</v>
+        <v>0.211445</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.264634</v>
+        <v>0.222243</v>
       </c>
       <c r="C89" t="n">
-        <v>0.270184</v>
+        <v>0.231105</v>
       </c>
       <c r="D89" t="n">
-        <v>0.244671</v>
+        <v>0.213675</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.268315</v>
+        <v>0.230019</v>
       </c>
       <c r="C90" t="n">
-        <v>0.297529</v>
+        <v>0.241061</v>
       </c>
       <c r="D90" t="n">
-        <v>0.2606</v>
+        <v>0.217041</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.304748</v>
+        <v>0.241632</v>
       </c>
       <c r="C91" t="n">
-        <v>0.298915</v>
+        <v>0.255039</v>
       </c>
       <c r="D91" t="n">
-        <v>0.264662</v>
+        <v>0.221749</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.327694</v>
+        <v>0.259142</v>
       </c>
       <c r="C92" t="n">
-        <v>0.33397</v>
+        <v>0.275323</v>
       </c>
       <c r="D92" t="n">
-        <v>0.273487</v>
+        <v>0.229345</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.3613</v>
+        <v>0.286974</v>
       </c>
       <c r="C93" t="n">
-        <v>0.379405</v>
+        <v>0.306761</v>
       </c>
       <c r="D93" t="n">
-        <v>0.287688</v>
+        <v>0.241887</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.4133</v>
+        <v>0.330531</v>
       </c>
       <c r="C94" t="n">
-        <v>0.438698</v>
+        <v>0.354702</v>
       </c>
       <c r="D94" t="n">
-        <v>0.276604</v>
+        <v>0.214422</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.273915</v>
+        <v>0.215512</v>
       </c>
       <c r="C95" t="n">
-        <v>0.295566</v>
+        <v>0.216344</v>
       </c>
       <c r="D95" t="n">
-        <v>0.279371</v>
+        <v>0.215035</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.274388</v>
+        <v>0.216486</v>
       </c>
       <c r="C96" t="n">
-        <v>0.295856</v>
+        <v>0.217594</v>
       </c>
       <c r="D96" t="n">
-        <v>0.283241</v>
+        <v>0.215395</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.27494</v>
+        <v>0.217661</v>
       </c>
       <c r="C97" t="n">
-        <v>0.294051</v>
+        <v>0.219025</v>
       </c>
       <c r="D97" t="n">
-        <v>0.283175</v>
+        <v>0.216131</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.278457</v>
+        <v>0.219156</v>
       </c>
       <c r="C98" t="n">
-        <v>0.297269</v>
+        <v>0.220857</v>
       </c>
       <c r="D98" t="n">
-        <v>0.285716</v>
+        <v>0.216741</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.287285</v>
+        <v>0.220926</v>
       </c>
       <c r="C99" t="n">
-        <v>0.30868</v>
+        <v>0.223213</v>
       </c>
       <c r="D99" t="n">
-        <v>0.285685</v>
+        <v>0.217519</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.287535</v>
+        <v>0.223146</v>
       </c>
       <c r="C100" t="n">
-        <v>0.301997</v>
+        <v>0.226136</v>
       </c>
       <c r="D100" t="n">
-        <v>0.286656</v>
+        <v>0.21859</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.290247</v>
+        <v>0.226215</v>
       </c>
       <c r="C101" t="n">
-        <v>0.311282</v>
+        <v>0.230249</v>
       </c>
       <c r="D101" t="n">
-        <v>0.289819</v>
+        <v>0.219851</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.296484</v>
+        <v>0.230225</v>
       </c>
       <c r="C102" t="n">
-        <v>0.316099</v>
+        <v>0.23596</v>
       </c>
       <c r="D102" t="n">
-        <v>0.29061</v>
+        <v>0.221378</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.305298</v>
+        <v>0.236034</v>
       </c>
       <c r="C103" t="n">
-        <v>0.325098</v>
+        <v>0.243913</v>
       </c>
       <c r="D103" t="n">
-        <v>0.29595</v>
+        <v>0.223854</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.317436</v>
+        <v>0.244316</v>
       </c>
       <c r="C104" t="n">
-        <v>0.340762</v>
+        <v>0.254966</v>
       </c>
       <c r="D104" t="n">
-        <v>0.298337</v>
+        <v>0.227151</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.326723</v>
+        <v>0.256566</v>
       </c>
       <c r="C105" t="n">
-        <v>0.353959</v>
+        <v>0.270446</v>
       </c>
       <c r="D105" t="n">
-        <v>0.306879</v>
+        <v>0.231994</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.350402</v>
+        <v>0.275246</v>
       </c>
       <c r="C106" t="n">
-        <v>0.380064</v>
+        <v>0.292325</v>
       </c>
       <c r="D106" t="n">
-        <v>0.317945</v>
+        <v>0.23972</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.382461</v>
+        <v>0.303355</v>
       </c>
       <c r="C107" t="n">
-        <v>0.423601</v>
+        <v>0.324899</v>
       </c>
       <c r="D107" t="n">
-        <v>0.334176</v>
+        <v>0.252394</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.439079</v>
+        <v>0.346157</v>
       </c>
       <c r="C108" t="n">
-        <v>0.484229</v>
+        <v>0.373009</v>
       </c>
       <c r="D108" t="n">
-        <v>0.310459</v>
+        <v>0.219622</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5086349999999999</v>
+        <v>0.410004</v>
       </c>
       <c r="C109" t="n">
-        <v>0.572756</v>
+        <v>0.441485</v>
       </c>
       <c r="D109" t="n">
-        <v>0.309677</v>
+        <v>0.219989</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.296012</v>
+        <v>0.234388</v>
       </c>
       <c r="C110" t="n">
-        <v>0.314701</v>
+        <v>0.234415</v>
       </c>
       <c r="D110" t="n">
-        <v>0.300048</v>
+        <v>0.221376</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.31393</v>
+        <v>0.23552</v>
       </c>
       <c r="C111" t="n">
-        <v>0.316768</v>
+        <v>0.238916</v>
       </c>
       <c r="D111" t="n">
-        <v>0.296897</v>
+        <v>0.222187</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.30819</v>
+        <v>0.24406</v>
       </c>
       <c r="C112" t="n">
-        <v>0.34835</v>
+        <v>0.244939</v>
       </c>
       <c r="D112" t="n">
-        <v>0.313371</v>
+        <v>0.223783</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.314272</v>
+        <v>0.245762</v>
       </c>
       <c r="C113" t="n">
-        <v>0.330092</v>
+        <v>0.250672</v>
       </c>
       <c r="D113" t="n">
-        <v>0.312806</v>
+        <v>0.225473</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.305215</v>
+        <v>0.251799</v>
       </c>
       <c r="C114" t="n">
-        <v>0.32167</v>
+        <v>0.259565</v>
       </c>
       <c r="D114" t="n">
-        <v>0.301203</v>
+        <v>0.227803</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.309598</v>
+        <v>0.259493</v>
       </c>
       <c r="C115" t="n">
-        <v>0.322148</v>
+        <v>0.268304</v>
       </c>
       <c r="D115" t="n">
-        <v>0.302316</v>
+        <v>0.230901</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.318106</v>
+        <v>0.268161</v>
       </c>
       <c r="C116" t="n">
-        <v>0.32776</v>
+        <v>0.278236</v>
       </c>
       <c r="D116" t="n">
-        <v>0.30296</v>
+        <v>0.23363</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.322841</v>
+        <v>0.282703</v>
       </c>
       <c r="C117" t="n">
-        <v>0.342705</v>
+        <v>0.290197</v>
       </c>
       <c r="D117" t="n">
-        <v>0.319208</v>
+        <v>0.239615</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.336769</v>
+        <v>0.294572</v>
       </c>
       <c r="C118" t="n">
-        <v>0.348425</v>
+        <v>0.304136</v>
       </c>
       <c r="D118" t="n">
-        <v>0.309203</v>
+        <v>0.246012</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.344216</v>
+        <v>0.305049</v>
       </c>
       <c r="C119" t="n">
-        <v>0.363699</v>
+        <v>0.31894</v>
       </c>
       <c r="D119" t="n">
-        <v>0.318326</v>
+        <v>0.255334</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.36606</v>
+        <v>0.329962</v>
       </c>
       <c r="C120" t="n">
-        <v>0.384911</v>
+        <v>0.345631</v>
       </c>
       <c r="D120" t="n">
-        <v>0.324492</v>
+        <v>0.266942</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.391211</v>
+        <v>0.359724</v>
       </c>
       <c r="C121" t="n">
-        <v>0.41867</v>
+        <v>0.378593</v>
       </c>
       <c r="D121" t="n">
-        <v>0.340712</v>
+        <v>0.28342</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.441614</v>
+        <v>0.403614</v>
       </c>
       <c r="C122" t="n">
-        <v>0.478659</v>
+        <v>0.42913</v>
       </c>
       <c r="D122" t="n">
-        <v>0.3601</v>
+        <v>0.307171</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.514208</v>
+        <v>0.472042</v>
       </c>
       <c r="C123" t="n">
-        <v>0.556034</v>
+        <v>0.507163</v>
       </c>
       <c r="D123" t="n">
-        <v>0.32338</v>
+        <v>0.248404</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.321297</v>
+        <v>0.283546</v>
       </c>
       <c r="C124" t="n">
-        <v>0.34117</v>
+        <v>0.284122</v>
       </c>
       <c r="D124" t="n">
-        <v>0.324522</v>
+        <v>0.251814</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.326359</v>
+        <v>0.287532</v>
       </c>
       <c r="C125" t="n">
-        <v>0.334815</v>
+        <v>0.289015</v>
       </c>
       <c r="D125" t="n">
-        <v>0.328704</v>
+        <v>0.25509</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.321409</v>
+        <v>0.282358</v>
       </c>
       <c r="C126" t="n">
-        <v>0.343369</v>
+        <v>0.294283</v>
       </c>
       <c r="D126" t="n">
-        <v>0.348286</v>
+        <v>0.259242</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.327871</v>
+        <v>0.296591</v>
       </c>
       <c r="C127" t="n">
-        <v>0.34089</v>
+        <v>0.299256</v>
       </c>
       <c r="D127" t="n">
-        <v>0.321294</v>
+        <v>0.261764</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.32722</v>
+        <v>0.301634</v>
       </c>
       <c r="C128" t="n">
-        <v>0.353685</v>
+        <v>0.306047</v>
       </c>
       <c r="D128" t="n">
-        <v>0.34507</v>
+        <v>0.266002</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.354141</v>
+        <v>0.307266</v>
       </c>
       <c r="C129" t="n">
-        <v>0.363913</v>
+        <v>0.313816</v>
       </c>
       <c r="D129" t="n">
-        <v>0.332181</v>
+        <v>0.269563</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.338917</v>
+        <v>0.317815</v>
       </c>
       <c r="C130" t="n">
-        <v>0.366889</v>
+        <v>0.320816</v>
       </c>
       <c r="D130" t="n">
-        <v>0.341842</v>
+        <v>0.273092</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.394502</v>
+        <v>0.32328</v>
       </c>
       <c r="C131" t="n">
-        <v>0.373995</v>
+        <v>0.332303</v>
       </c>
       <c r="D131" t="n">
-        <v>0.397644</v>
+        <v>0.278296</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.382135</v>
+        <v>0.338419</v>
       </c>
       <c r="C132" t="n">
-        <v>0.454731</v>
+        <v>0.345579</v>
       </c>
       <c r="D132" t="n">
-        <v>0.385056</v>
+        <v>0.284308</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.388668</v>
+        <v>0.344878</v>
       </c>
       <c r="C133" t="n">
-        <v>0.401008</v>
+        <v>0.363926</v>
       </c>
       <c r="D133" t="n">
-        <v>0.345881</v>
+        <v>0.290893</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.408012</v>
+        <v>0.355301</v>
       </c>
       <c r="C134" t="n">
-        <v>0.514886</v>
+        <v>0.389367</v>
       </c>
       <c r="D134" t="n">
-        <v>0.401888</v>
+        <v>0.301123</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.450075</v>
+        <v>0.383369</v>
       </c>
       <c r="C135" t="n">
-        <v>0.45669</v>
+        <v>0.422451</v>
       </c>
       <c r="D135" t="n">
-        <v>0.359608</v>
+        <v>0.313971</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.502467</v>
+        <v>0.441565</v>
       </c>
       <c r="C136" t="n">
-        <v>0.511249</v>
+        <v>0.476633</v>
       </c>
       <c r="D136" t="n">
-        <v>0.375303</v>
+        <v>0.337991</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.554086</v>
+        <v>0.521696</v>
       </c>
       <c r="C137" t="n">
-        <v>0.671428</v>
+        <v>0.555331</v>
       </c>
       <c r="D137" t="n">
-        <v>0.55621</v>
+        <v>0.391483</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.584314</v>
+        <v>0.442793</v>
       </c>
       <c r="C138" t="n">
-        <v>0.573179</v>
+        <v>0.426387</v>
       </c>
       <c r="D138" t="n">
-        <v>0.486856</v>
+        <v>0.385079</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.486842</v>
+        <v>0.425515</v>
       </c>
       <c r="C139" t="n">
-        <v>0.492899</v>
+        <v>0.43822</v>
       </c>
       <c r="D139" t="n">
-        <v>0.467356</v>
+        <v>0.396637</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.461828</v>
+        <v>0.451324</v>
       </c>
       <c r="C140" t="n">
-        <v>0.461166</v>
+        <v>0.43883</v>
       </c>
       <c r="D140" t="n">
-        <v>0.450996</v>
+        <v>0.393712</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.513228</v>
+        <v>0.433764</v>
       </c>
       <c r="C141" t="n">
-        <v>0.519787</v>
+        <v>0.449269</v>
       </c>
       <c r="D141" t="n">
-        <v>0.5008359999999999</v>
+        <v>0.401141</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.487279</v>
+        <v>0.4403</v>
       </c>
       <c r="C142" t="n">
-        <v>0.5459310000000001</v>
+        <v>0.454893</v>
       </c>
       <c r="D142" t="n">
-        <v>0.556707</v>
+        <v>0.402166</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.581939</v>
+        <v>0.448942</v>
       </c>
       <c r="C143" t="n">
-        <v>0.502605</v>
+        <v>0.465061</v>
       </c>
       <c r="D143" t="n">
-        <v>0.543915</v>
+        <v>0.408309</v>
       </c>
     </row>
   </sheetData>
